--- a/benchmarking python go c++.xlsx
+++ b/benchmarking python go c++.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="benchmarks" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="summary" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>Runtime (in milliseconds)</t>
   </si>
@@ -81,12 +82,63 @@
   <si>
     <t>Range Sum of BST</t>
   </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Avg Runtime (Milliseconds)</t>
+  </si>
+  <si>
+    <t>get, iterative</t>
+  </si>
+  <si>
+    <t>array, dict, map, int</t>
+  </si>
+  <si>
+    <t>append, pop, iterative</t>
+  </si>
+  <si>
+    <t>array, stack, string, vector</t>
+  </si>
+  <si>
+    <t>append, max, min, sort, iterative</t>
+  </si>
+  <si>
+    <t>array, int, vector</t>
+  </si>
+  <si>
+    <t>get, sort, iterative</t>
+  </si>
+  <si>
+    <t>dict, map, string</t>
+  </si>
+  <si>
+    <t>get, pointers, max, iterative</t>
+  </si>
+  <si>
+    <t>dict, map, int, string</t>
+  </si>
+  <si>
+    <t>binary search, recursive</t>
+  </si>
+  <si>
+    <t>binary search tree, int, stack (recursive)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -124,14 +176,69 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFBF9000"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFEFEFEF"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +269,26 @@
         <bgColor rgb="FF6D9EEB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor rgb="FF741B47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -261,11 +386,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -367,6 +522,124 @@
     <xf borderId="12" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -415,7 +688,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>benchmarks!$D$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -439,12 +712,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:f>benchmarks!$C$3:$C$13</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
+              <c:f>benchmarks!$D$3:$D$13</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -454,7 +727,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>benchmarks!$E$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -478,12 +751,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:f>benchmarks!$C$3:$C$13</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$13</c:f>
+              <c:f>benchmarks!$E$3:$E$13</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -493,7 +766,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>benchmarks!$F$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -517,12 +790,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:f>benchmarks!$C$3:$C$13</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$13</c:f>
+              <c:f>benchmarks!$F$3:$F$13</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -535,11 +808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457029738"/>
-        <c:axId val="95107576"/>
+        <c:axId val="59057016"/>
+        <c:axId val="718879715"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457029738"/>
+        <c:axId val="59057016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,10 +887,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95107576"/>
+        <c:crossAx val="718879715"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95107576"/>
+        <c:axId val="718879715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +965,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457029738"/>
+        <c:crossAx val="59057016"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -758,7 +1031,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>benchmarks!$D$13</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -782,12 +1055,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:f>benchmarks!$C$14:$C$23</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$23</c:f>
+              <c:f>benchmarks!$D$14:$D$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -797,7 +1070,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$13</c:f>
+              <c:f>benchmarks!$E$13</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -821,12 +1094,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:f>benchmarks!$C$14:$C$23</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$14:$E$23</c:f>
+              <c:f>benchmarks!$E$14:$E$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -836,7 +1109,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$13</c:f>
+              <c:f>benchmarks!$F$13</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -860,12 +1133,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:f>benchmarks!$C$14:$C$23</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$14:$F$23</c:f>
+              <c:f>benchmarks!$F$14:$F$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -878,11 +1151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291916404"/>
-        <c:axId val="1356740883"/>
+        <c:axId val="1638245853"/>
+        <c:axId val="1725837457"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291916404"/>
+        <c:axId val="1638245853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,10 +1230,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356740883"/>
+        <c:crossAx val="1725837457"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1356740883"/>
+        <c:axId val="1725837457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1308,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291916404"/>
+        <c:crossAx val="1638245853"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1101,7 +1374,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$24</c:f>
+              <c:f>benchmarks!$D$24</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1125,12 +1398,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$34</c:f>
+              <c:f>benchmarks!$C$25:$C$34</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$34</c:f>
+              <c:f>benchmarks!$D$25:$D$34</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1140,7 +1413,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$24</c:f>
+              <c:f>benchmarks!$E$24</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1164,12 +1437,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$34</c:f>
+              <c:f>benchmarks!$C$25:$C$34</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$E$34</c:f>
+              <c:f>benchmarks!$E$25:$E$34</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1179,7 +1452,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$24</c:f>
+              <c:f>benchmarks!$F$24</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1203,12 +1476,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$34</c:f>
+              <c:f>benchmarks!$C$25:$C$34</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$25:$F$34</c:f>
+              <c:f>benchmarks!$F$25:$F$34</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1221,11 +1494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226748265"/>
-        <c:axId val="1964226846"/>
+        <c:axId val="994619804"/>
+        <c:axId val="2104603545"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226748265"/>
+        <c:axId val="994619804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,10 +1573,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964226846"/>
+        <c:crossAx val="2104603545"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1964226846"/>
+        <c:axId val="2104603545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1651,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226748265"/>
+        <c:crossAx val="994619804"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1444,7 +1717,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$35</c:f>
+              <c:f>benchmarks!$D$35</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1468,12 +1741,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$C$45</c:f>
+              <c:f>benchmarks!$C$36:$C$45</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$36:$D$45</c:f>
+              <c:f>benchmarks!$D$36:$D$45</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1483,7 +1756,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$35</c:f>
+              <c:f>benchmarks!$E$35</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1507,12 +1780,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$C$45</c:f>
+              <c:f>benchmarks!$C$36:$C$45</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$E$45</c:f>
+              <c:f>benchmarks!$E$36:$E$45</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1522,7 +1795,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$35</c:f>
+              <c:f>benchmarks!$F$35</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1546,12 +1819,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$C$45</c:f>
+              <c:f>benchmarks!$C$36:$C$45</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$36:$F$45</c:f>
+              <c:f>benchmarks!$F$36:$F$45</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1564,11 +1837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="380184449"/>
-        <c:axId val="810248928"/>
+        <c:axId val="745405477"/>
+        <c:axId val="31747599"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="380184449"/>
+        <c:axId val="745405477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,10 +1916,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="810248928"/>
+        <c:crossAx val="31747599"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="810248928"/>
+        <c:axId val="31747599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1994,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380184449"/>
+        <c:crossAx val="745405477"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1787,7 +2060,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$46</c:f>
+              <c:f>benchmarks!$D$46</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1811,12 +2084,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$47:$C$56</c:f>
+              <c:f>benchmarks!$C$47:$C$56</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$47:$D$56</c:f>
+              <c:f>benchmarks!$D$47:$D$56</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1826,7 +2099,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$46</c:f>
+              <c:f>benchmarks!$E$46</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1850,12 +2123,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$47:$C$56</c:f>
+              <c:f>benchmarks!$C$47:$C$56</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$47:$E$56</c:f>
+              <c:f>benchmarks!$E$47:$E$56</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1865,7 +2138,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$46</c:f>
+              <c:f>benchmarks!$F$46</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1889,12 +2162,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$47:$C$56</c:f>
+              <c:f>benchmarks!$C$47:$C$56</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$56</c:f>
+              <c:f>benchmarks!$F$47:$F$56</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1907,11 +2180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333989971"/>
-        <c:axId val="546624212"/>
+        <c:axId val="1314754857"/>
+        <c:axId val="1484510741"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333989971"/>
+        <c:axId val="1314754857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,10 +2259,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546624212"/>
+        <c:crossAx val="1484510741"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="546624212"/>
+        <c:axId val="1484510741"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2337,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333989971"/>
+        <c:crossAx val="1314754857"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2130,7 +2403,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$57</c:f>
+              <c:f>benchmarks!$D$57</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2154,12 +2427,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$67</c:f>
+              <c:f>benchmarks!$C$58:$C$67</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$58:$D$67</c:f>
+              <c:f>benchmarks!$D$58:$D$67</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2169,7 +2442,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$57</c:f>
+              <c:f>benchmarks!$E$57</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2193,12 +2466,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$67</c:f>
+              <c:f>benchmarks!$C$58:$C$67</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$58:$E$67</c:f>
+              <c:f>benchmarks!$E$58:$E$67</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2208,7 +2481,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$57</c:f>
+              <c:f>benchmarks!$F$57</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2232,12 +2505,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$67</c:f>
+              <c:f>benchmarks!$C$58:$C$67</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$58:$F$67</c:f>
+              <c:f>benchmarks!$F$58:$F$67</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2250,11 +2523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1946591534"/>
-        <c:axId val="1412281613"/>
+        <c:axId val="203283427"/>
+        <c:axId val="2002364370"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1946591534"/>
+        <c:axId val="203283427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,10 +2602,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1412281613"/>
+        <c:crossAx val="2002364370"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1412281613"/>
+        <c:axId val="2002364370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2680,350 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946591534"/>
+        <c:crossAx val="203283427"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Average Runtime(ms) by Problem</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$H$25</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$G$26:$G$43</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$H$26:$H$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$25</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$G$26:$G$43</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$I$26:$I$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$J$25</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$G$26:$G$43</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$26:$J$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1185774350"/>
+        <c:axId val="745261858"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1185774350"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745261858"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="745261858"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185774350"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2580,6 +3196,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6677025" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3823,7 +4469,7 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -8048,4 +8694,707 @@
   </hyperlinks>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.29"/>
+    <col customWidth="1" min="3" max="3" width="15.29"/>
+    <col customWidth="1" min="5" max="5" width="26.0"/>
+    <col customWidth="1" min="7" max="7" width="18.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.25" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="48">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="51">
+        <v>1.4259999999999997</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" ht="4.5" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0.53</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="64">
+        <v>1.51</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="65">
+        <v>3.76</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" ht="4.5" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.4789999999999999</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="51">
+        <v>8.835</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="54">
+        <v>12.4</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" ht="4.5" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="48">
+        <v>4.123</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="51">
+        <v>5.717999999999999</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="67">
+        <v>6.8</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" ht="4.5" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="48">
+        <v>3.005</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="70">
+        <v>6.92</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="51">
+        <v>10.798</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+    </row>
+    <row r="21" ht="4.5" customHeight="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="64">
+        <v>0.34</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="65">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="78">
+        <v>0.518</v>
+      </c>
+      <c r="I26" s="78">
+        <v>1.4259999999999997</v>
+      </c>
+      <c r="J26" s="78">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+    </row>
+    <row r="28">
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="80">
+        <v>0.53</v>
+      </c>
+      <c r="I29" s="80">
+        <v>1.51</v>
+      </c>
+      <c r="J29" s="80">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31">
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+    </row>
+    <row r="32">
+      <c r="G32" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="81">
+        <v>0.4789999999999999</v>
+      </c>
+      <c r="I32" s="78">
+        <v>8.835</v>
+      </c>
+      <c r="J32" s="78">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+    </row>
+    <row r="34">
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+    </row>
+    <row r="35">
+      <c r="G35" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="78">
+        <v>5.717999999999999</v>
+      </c>
+      <c r="I35" s="78">
+        <v>4.123</v>
+      </c>
+      <c r="J35" s="82">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+    </row>
+    <row r="37">
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+    </row>
+    <row r="38">
+      <c r="G38" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="78">
+        <v>3.005</v>
+      </c>
+      <c r="I38" s="82">
+        <v>6.92</v>
+      </c>
+      <c r="J38" s="78">
+        <v>10.798</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+    </row>
+    <row r="40">
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+    </row>
+    <row r="41">
+      <c r="G41" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="80">
+        <v>0.46</v>
+      </c>
+      <c r="I41" s="80">
+        <v>0.34</v>
+      </c>
+      <c r="J41" s="80">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+    </row>
+    <row r="43">
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A6"/>
+    <hyperlink r:id="rId3" ref="A10"/>
+    <hyperlink r:id="rId4" ref="A14"/>
+    <hyperlink r:id="rId5" ref="A18"/>
+    <hyperlink r:id="rId6" ref="A22"/>
+    <hyperlink r:id="rId7" ref="G26"/>
+    <hyperlink r:id="rId8" ref="G29"/>
+    <hyperlink r:id="rId9" ref="G32"/>
+    <hyperlink r:id="rId10" ref="G35"/>
+    <hyperlink r:id="rId11" ref="G38"/>
+    <hyperlink r:id="rId12" ref="G41"/>
+  </hyperlinks>
+  <drawing r:id="rId13"/>
+</worksheet>
 </file>
--- a/benchmarking python go c++.xlsx
+++ b/benchmarking python go c++.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="benchmarks" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="summary" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="sample runs" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="40">
   <si>
     <t>Runtime (in milliseconds)</t>
   </si>
@@ -138,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -196,9 +197,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -211,21 +209,6 @@
     <font>
       <u/>
       <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFBF9000"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFEFEFEF"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -420,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,25 +526,25 @@
     <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="6" fontId="12" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="6" fontId="12" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="6" fontId="12" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -573,62 +556,61 @@
     <xf borderId="14" fillId="2" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="6" fontId="12" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="6" fontId="12" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="13" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -639,6 +621,15 @@
     </xf>
     <xf borderId="13" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,11 +799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59057016"/>
-        <c:axId val="718879715"/>
+        <c:axId val="1001955464"/>
+        <c:axId val="1816347325"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59057016"/>
+        <c:axId val="1001955464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,10 +878,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718879715"/>
+        <c:crossAx val="1816347325"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="718879715"/>
+        <c:axId val="1816347325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +956,1095 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59057016"/>
+        <c:crossAx val="1001955464"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Range Sum of BST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$48</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$48:$CW$48</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$49</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$49:$CW$49</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$50</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$50:$CW$50</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="49592669"/>
+        <c:axId val="717320855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49592669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717320855"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717320855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49592669"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Merge Intervals</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$71</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$71:$CW$71</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$72</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$72:$CW$72</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$73</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$73:$CW$73</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1419632910"/>
+        <c:axId val="747447444"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1419632910"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747447444"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="747447444"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419632910"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Longest Substring Without Repeating Characters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$94</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$94:$CW$94</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$95</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$95:$CW$95</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$96</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$96:$CW$96</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="884671573"/>
+        <c:axId val="453985894"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="884671573"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453985894"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453985894"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884671573"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Group Anagrams</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$117</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$117:$CW$117</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$118</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$118:$CW$118</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$119</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$119:$CW$119</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1143400284"/>
+        <c:axId val="835848756"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1143400284"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835848756"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="835848756"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143400284"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1151,11 +2230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1638245853"/>
-        <c:axId val="1725837457"/>
+        <c:axId val="1643593057"/>
+        <c:axId val="1625792838"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1638245853"/>
+        <c:axId val="1643593057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,10 +2309,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725837457"/>
+        <c:crossAx val="1625792838"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1725837457"/>
+        <c:axId val="1625792838"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +2387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1638245853"/>
+        <c:crossAx val="1643593057"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1494,11 +2573,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="994619804"/>
-        <c:axId val="2104603545"/>
+        <c:axId val="1070014238"/>
+        <c:axId val="370726537"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="994619804"/>
+        <c:axId val="1070014238"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,10 +2652,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104603545"/>
+        <c:crossAx val="370726537"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104603545"/>
+        <c:axId val="370726537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +2730,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994619804"/>
+        <c:crossAx val="1070014238"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1837,11 +2916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="745405477"/>
-        <c:axId val="31747599"/>
+        <c:axId val="198374409"/>
+        <c:axId val="457496502"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="745405477"/>
+        <c:axId val="198374409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,10 +2995,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31747599"/>
+        <c:crossAx val="457496502"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31747599"/>
+        <c:axId val="457496502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +3073,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745405477"/>
+        <c:crossAx val="198374409"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2180,11 +3259,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1314754857"/>
-        <c:axId val="1484510741"/>
+        <c:axId val="1433575178"/>
+        <c:axId val="442277596"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1314754857"/>
+        <c:axId val="1433575178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,10 +3338,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1484510741"/>
+        <c:crossAx val="442277596"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1484510741"/>
+        <c:axId val="442277596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +3416,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1314754857"/>
+        <c:crossAx val="1433575178"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2523,11 +3602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203283427"/>
-        <c:axId val="2002364370"/>
+        <c:axId val="1868899549"/>
+        <c:axId val="308472470"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203283427"/>
+        <c:axId val="1868899549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,10 +3681,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2002364370"/>
+        <c:crossAx val="308472470"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2002364370"/>
+        <c:axId val="308472470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +3759,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203283427"/>
+        <c:crossAx val="1868899549"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2866,11 +3945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1185774350"/>
-        <c:axId val="745261858"/>
+        <c:axId val="1656603002"/>
+        <c:axId val="626331325"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1185774350"/>
+        <c:axId val="1656603002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,10 +4024,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745261858"/>
+        <c:crossAx val="626331325"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="745261858"/>
+        <c:axId val="626331325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,7 +4102,551 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185774350"/>
+        <c:crossAx val="1656603002"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Two Sum</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$25</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$25:$CW$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$26</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$26:$CW$26</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$27</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$27:$CW$27</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1271098468"/>
+        <c:axId val="297447951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1271098468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297447951"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297447951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271098468"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Valid Parentheses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$2:$CW$2</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$3</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$3:$CW$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sample runs'!$A$4</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'sample runs'!$B$4:$CW$4</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1184795734"/>
+        <c:axId val="1175296095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1184795734"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Sample Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1175296095"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1175296095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184795734"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3226,6 +4849,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 9" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 10" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 11" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 12" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 13" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8798,9 +10576,9 @@
       <c r="C5" s="57"/>
       <c r="D5" s="58"/>
       <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -8830,10 +10608,10 @@
       <c r="C6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="61">
         <v>0.53</v>
       </c>
       <c r="F6" s="55"/>
@@ -8844,10 +10622,10 @@
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <v>1.51</v>
       </c>
       <c r="F7" s="55"/>
@@ -8861,7 +10639,7 @@
       <c r="D8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>3.76</v>
       </c>
       <c r="F8" s="55"/>
@@ -8873,10 +10651,10 @@
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -8950,9 +10728,9 @@
       <c r="C13" s="57"/>
       <c r="D13" s="58"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -9013,7 +10791,7 @@
       <c r="D16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="66">
         <v>6.8</v>
       </c>
       <c r="F16" s="55"/>
@@ -9025,10 +10803,10 @@
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="D17" s="58"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -9049,7 +10827,7 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="68" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -9075,7 +10853,7 @@
       <c r="D19" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="69">
         <v>6.92</v>
       </c>
       <c r="F19" s="55"/>
@@ -9101,10 +10879,10 @@
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="D21" s="58"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -9125,7 +10903,7 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -9137,7 +10915,7 @@
       <c r="D22" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="63">
         <v>0.34</v>
       </c>
       <c r="F22" s="55"/>
@@ -9151,7 +10929,7 @@
       <c r="D23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="63">
         <v>0.46</v>
       </c>
     </row>
@@ -9162,35 +10940,35 @@
       <c r="D24" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="64">
         <v>11.54</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="74" t="s">
+      <c r="H25" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="76" t="s">
+      <c r="J25" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26">
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="77">
         <v>0.518</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="77">
         <v>1.4259999999999997</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="77">
         <v>1.6</v>
       </c>
     </row>
@@ -9207,16 +10985,16 @@
       <c r="J28" s="52"/>
     </row>
     <row r="29">
-      <c r="G29" s="79" t="s">
+      <c r="G29" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="79">
         <v>0.53</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="79">
         <v>1.51</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="79">
         <v>3.76</v>
       </c>
     </row>
@@ -9233,16 +11011,16 @@
       <c r="J31" s="52"/>
     </row>
     <row r="32">
-      <c r="G32" s="79" t="s">
+      <c r="G32" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="81">
+      <c r="H32" s="80">
         <v>0.4789999999999999</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="77">
         <v>8.835</v>
       </c>
-      <c r="J32" s="78">
+      <c r="J32" s="77">
         <v>12.4</v>
       </c>
     </row>
@@ -9259,16 +11037,16 @@
       <c r="J34" s="52"/>
     </row>
     <row r="35">
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="78">
+      <c r="H35" s="77">
         <v>5.717999999999999</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="77">
         <v>4.123</v>
       </c>
-      <c r="J35" s="82">
+      <c r="J35" s="81">
         <v>6.8</v>
       </c>
     </row>
@@ -9285,16 +11063,16 @@
       <c r="J37" s="52"/>
     </row>
     <row r="38">
-      <c r="G38" s="79" t="s">
+      <c r="G38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="78">
+      <c r="H38" s="77">
         <v>3.005</v>
       </c>
-      <c r="I38" s="82">
+      <c r="I38" s="81">
         <v>6.92</v>
       </c>
-      <c r="J38" s="78">
+      <c r="J38" s="77">
         <v>10.798</v>
       </c>
     </row>
@@ -9311,16 +11089,16 @@
       <c r="J40" s="52"/>
     </row>
     <row r="41">
-      <c r="G41" s="79" t="s">
+      <c r="G41" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="80">
+      <c r="H41" s="79">
         <v>0.46</v>
       </c>
-      <c r="I41" s="80">
+      <c r="I41" s="79">
         <v>0.34</v>
       </c>
-      <c r="J41" s="80">
+      <c r="J41" s="79">
         <v>11.54</v>
       </c>
     </row>
@@ -9397,4 +11175,6057 @@
   </hyperlinks>
   <drawing r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="82">
+        <v>4.15404E-4</v>
+      </c>
+      <c r="C2" s="82">
+        <v>0.0212659</v>
+      </c>
+      <c r="D2" s="82">
+        <v>0.0521419</v>
+      </c>
+      <c r="E2" s="82">
+        <v>0.0494674</v>
+      </c>
+      <c r="F2" s="82">
+        <v>0.0726433</v>
+      </c>
+      <c r="G2" s="82">
+        <v>0.102461</v>
+      </c>
+      <c r="H2" s="82">
+        <v>0.111532</v>
+      </c>
+      <c r="I2" s="82">
+        <v>0.178275</v>
+      </c>
+      <c r="J2" s="82">
+        <v>0.201491</v>
+      </c>
+      <c r="K2" s="82">
+        <v>0.237959</v>
+      </c>
+      <c r="L2" s="82">
+        <v>0.263506</v>
+      </c>
+      <c r="M2" s="82">
+        <v>0.153795</v>
+      </c>
+      <c r="N2" s="82">
+        <v>0.159884</v>
+      </c>
+      <c r="O2" s="82">
+        <v>0.160238</v>
+      </c>
+      <c r="P2" s="82">
+        <v>0.1684</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>0.175928</v>
+      </c>
+      <c r="R2" s="82">
+        <v>0.199734</v>
+      </c>
+      <c r="S2" s="82">
+        <v>0.200566</v>
+      </c>
+      <c r="T2" s="82">
+        <v>0.269618</v>
+      </c>
+      <c r="U2" s="82">
+        <v>0.243502</v>
+      </c>
+      <c r="V2" s="82">
+        <v>0.247136</v>
+      </c>
+      <c r="W2" s="82">
+        <v>0.266767</v>
+      </c>
+      <c r="X2" s="82">
+        <v>0.226336</v>
+      </c>
+      <c r="Y2" s="82">
+        <v>0.245018</v>
+      </c>
+      <c r="Z2" s="82">
+        <v>0.246827</v>
+      </c>
+      <c r="AA2" s="82">
+        <v>0.255634</v>
+      </c>
+      <c r="AB2" s="82">
+        <v>0.25989</v>
+      </c>
+      <c r="AC2" s="82">
+        <v>0.274062</v>
+      </c>
+      <c r="AD2" s="82">
+        <v>0.279988</v>
+      </c>
+      <c r="AE2" s="82">
+        <v>0.305003</v>
+      </c>
+      <c r="AF2" s="82">
+        <v>0.304345</v>
+      </c>
+      <c r="AG2" s="82">
+        <v>0.321125</v>
+      </c>
+      <c r="AH2" s="82">
+        <v>0.332762</v>
+      </c>
+      <c r="AI2" s="82">
+        <v>0.339153</v>
+      </c>
+      <c r="AJ2" s="82">
+        <v>0.349234</v>
+      </c>
+      <c r="AK2" s="82">
+        <v>0.366496</v>
+      </c>
+      <c r="AL2" s="82">
+        <v>0.363196</v>
+      </c>
+      <c r="AM2" s="82">
+        <v>0.37339</v>
+      </c>
+      <c r="AN2" s="82">
+        <v>0.387734</v>
+      </c>
+      <c r="AO2" s="82">
+        <v>0.402991</v>
+      </c>
+      <c r="AP2" s="82">
+        <v>0.408691</v>
+      </c>
+      <c r="AQ2" s="82">
+        <v>0.422808</v>
+      </c>
+      <c r="AR2" s="82">
+        <v>0.42438</v>
+      </c>
+      <c r="AS2" s="82">
+        <v>0.445863</v>
+      </c>
+      <c r="AT2" s="82">
+        <v>0.44477</v>
+      </c>
+      <c r="AU2" s="82">
+        <v>0.46142</v>
+      </c>
+      <c r="AV2" s="82">
+        <v>0.464563</v>
+      </c>
+      <c r="AW2" s="82">
+        <v>0.487313</v>
+      </c>
+      <c r="AX2" s="82">
+        <v>0.490594</v>
+      </c>
+      <c r="AY2" s="82">
+        <v>0.500472</v>
+      </c>
+      <c r="AZ2" s="82">
+        <v>0.508741</v>
+      </c>
+      <c r="BA2" s="82">
+        <v>0.528284</v>
+      </c>
+      <c r="BB2" s="82">
+        <v>0.526842</v>
+      </c>
+      <c r="BC2" s="82">
+        <v>0.536956</v>
+      </c>
+      <c r="BD2" s="82">
+        <v>0.546494</v>
+      </c>
+      <c r="BE2" s="82">
+        <v>0.556368</v>
+      </c>
+      <c r="BF2" s="82">
+        <v>0.571291</v>
+      </c>
+      <c r="BG2" s="82">
+        <v>0.58298</v>
+      </c>
+      <c r="BH2" s="82">
+        <v>0.594947</v>
+      </c>
+      <c r="BI2" s="82">
+        <v>0.609245</v>
+      </c>
+      <c r="BJ2" s="82">
+        <v>0.619902</v>
+      </c>
+      <c r="BK2" s="82">
+        <v>0.621237</v>
+      </c>
+      <c r="BL2" s="82">
+        <v>0.630809</v>
+      </c>
+      <c r="BM2" s="82">
+        <v>0.644751</v>
+      </c>
+      <c r="BN2" s="82">
+        <v>0.653007</v>
+      </c>
+      <c r="BO2" s="82">
+        <v>0.668831</v>
+      </c>
+      <c r="BP2" s="82">
+        <v>0.675609</v>
+      </c>
+      <c r="BQ2" s="82">
+        <v>0.698053</v>
+      </c>
+      <c r="BR2" s="82">
+        <v>0.699886</v>
+      </c>
+      <c r="BS2" s="82">
+        <v>0.698186</v>
+      </c>
+      <c r="BT2" s="82">
+        <v>0.716027</v>
+      </c>
+      <c r="BU2" s="82">
+        <v>0.725469</v>
+      </c>
+      <c r="BV2" s="82">
+        <v>0.737347</v>
+      </c>
+      <c r="BW2" s="82">
+        <v>0.738443</v>
+      </c>
+      <c r="BX2" s="82">
+        <v>0.753442</v>
+      </c>
+      <c r="BY2" s="82">
+        <v>0.761721</v>
+      </c>
+      <c r="BZ2" s="82">
+        <v>0.780761</v>
+      </c>
+      <c r="CA2" s="82">
+        <v>0.795711</v>
+      </c>
+      <c r="CB2" s="82">
+        <v>0.797837</v>
+      </c>
+      <c r="CC2" s="82">
+        <v>0.797537</v>
+      </c>
+      <c r="CD2" s="82">
+        <v>0.814562</v>
+      </c>
+      <c r="CE2" s="82">
+        <v>0.835768</v>
+      </c>
+      <c r="CF2" s="82">
+        <v>0.828068</v>
+      </c>
+      <c r="CG2" s="82">
+        <v>0.882634</v>
+      </c>
+      <c r="CH2" s="82">
+        <v>0.866922</v>
+      </c>
+      <c r="CI2" s="82">
+        <v>0.864689</v>
+      </c>
+      <c r="CJ2" s="82">
+        <v>0.869495</v>
+      </c>
+      <c r="CK2" s="82">
+        <v>0.878917</v>
+      </c>
+      <c r="CL2" s="82">
+        <v>0.923499</v>
+      </c>
+      <c r="CM2" s="82">
+        <v>0.929239</v>
+      </c>
+      <c r="CN2" s="82">
+        <v>0.920787</v>
+      </c>
+      <c r="CO2" s="82">
+        <v>1.06657</v>
+      </c>
+      <c r="CP2" s="82">
+        <v>0.978966</v>
+      </c>
+      <c r="CQ2" s="82">
+        <v>0.949154</v>
+      </c>
+      <c r="CR2" s="82">
+        <v>0.96532</v>
+      </c>
+      <c r="CS2" s="82">
+        <v>0.99248</v>
+      </c>
+      <c r="CT2" s="82">
+        <v>0.993136</v>
+      </c>
+      <c r="CU2" s="82">
+        <v>1.00289</v>
+      </c>
+      <c r="CV2" s="82">
+        <v>0.998421</v>
+      </c>
+      <c r="CW2" s="82">
+        <v>0.999569</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.002</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.004</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="37">
+        <v>0.028</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0.026</v>
+      </c>
+      <c r="L3" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="M3" s="37">
+        <v>0.015</v>
+      </c>
+      <c r="N3" s="37">
+        <v>0.043</v>
+      </c>
+      <c r="O3" s="37">
+        <v>0.041</v>
+      </c>
+      <c r="P3" s="37">
+        <v>0.037</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>0.035</v>
+      </c>
+      <c r="R3" s="37">
+        <v>0.044</v>
+      </c>
+      <c r="S3" s="37">
+        <v>0.029</v>
+      </c>
+      <c r="T3" s="37">
+        <v>0.028</v>
+      </c>
+      <c r="U3" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="V3" s="37">
+        <v>0.028</v>
+      </c>
+      <c r="W3" s="37">
+        <v>0.034</v>
+      </c>
+      <c r="X3" s="37">
+        <v>0.039</v>
+      </c>
+      <c r="Y3" s="37">
+        <v>0.074</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0.041</v>
+      </c>
+      <c r="AA3" s="37">
+        <v>0.034</v>
+      </c>
+      <c r="AB3" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="AC3" s="37">
+        <v>0.048</v>
+      </c>
+      <c r="AD3" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="AE3" s="37">
+        <v>0.049</v>
+      </c>
+      <c r="AF3" s="37">
+        <v>0.094</v>
+      </c>
+      <c r="AG3" s="37">
+        <v>0.069</v>
+      </c>
+      <c r="AH3" s="37">
+        <v>0.058</v>
+      </c>
+      <c r="AI3" s="37">
+        <v>0.115</v>
+      </c>
+      <c r="AJ3" s="37">
+        <v>0.067</v>
+      </c>
+      <c r="AK3" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="AL3" s="37">
+        <v>0.059</v>
+      </c>
+      <c r="AM3" s="37">
+        <v>0.061</v>
+      </c>
+      <c r="AN3" s="37">
+        <v>0.069</v>
+      </c>
+      <c r="AO3" s="37">
+        <v>0.074</v>
+      </c>
+      <c r="AP3" s="37">
+        <v>0.135</v>
+      </c>
+      <c r="AQ3" s="37">
+        <v>0.158</v>
+      </c>
+      <c r="AR3" s="37">
+        <v>0.161</v>
+      </c>
+      <c r="AS3" s="37">
+        <v>0.083</v>
+      </c>
+      <c r="AT3" s="37">
+        <v>0.106</v>
+      </c>
+      <c r="AU3" s="37">
+        <v>0.155</v>
+      </c>
+      <c r="AV3" s="37">
+        <v>0.094</v>
+      </c>
+      <c r="AW3" s="37">
+        <v>0.079</v>
+      </c>
+      <c r="AX3" s="37">
+        <v>0.111</v>
+      </c>
+      <c r="AY3" s="37">
+        <v>0.118</v>
+      </c>
+      <c r="AZ3" s="37">
+        <v>0.094</v>
+      </c>
+      <c r="BA3" s="37">
+        <v>0.094</v>
+      </c>
+      <c r="BB3" s="37">
+        <v>0.158</v>
+      </c>
+      <c r="BC3" s="37">
+        <v>0.128</v>
+      </c>
+      <c r="BD3" s="37">
+        <v>0.115</v>
+      </c>
+      <c r="BE3" s="37">
+        <v>0.136</v>
+      </c>
+      <c r="BF3" s="37">
+        <v>0.109</v>
+      </c>
+      <c r="BG3" s="37">
+        <v>0.099</v>
+      </c>
+      <c r="BH3" s="37">
+        <v>0.119</v>
+      </c>
+      <c r="BI3" s="37">
+        <v>0.157</v>
+      </c>
+      <c r="BJ3" s="37">
+        <v>0.138</v>
+      </c>
+      <c r="BK3" s="37">
+        <v>0.139</v>
+      </c>
+      <c r="BL3" s="37">
+        <v>0.169</v>
+      </c>
+      <c r="BM3" s="37">
+        <v>0.119</v>
+      </c>
+      <c r="BN3" s="37">
+        <v>0.122</v>
+      </c>
+      <c r="BO3" s="37">
+        <v>0.112</v>
+      </c>
+      <c r="BP3" s="37">
+        <v>0.149</v>
+      </c>
+      <c r="BQ3" s="37">
+        <v>0.147</v>
+      </c>
+      <c r="BR3" s="37">
+        <v>0.129</v>
+      </c>
+      <c r="BS3" s="37">
+        <v>0.123</v>
+      </c>
+      <c r="BT3" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="BU3" s="37">
+        <v>0.202</v>
+      </c>
+      <c r="BV3" s="37">
+        <v>0.172</v>
+      </c>
+      <c r="BW3" s="37">
+        <v>0.167</v>
+      </c>
+      <c r="BX3" s="37">
+        <v>0.217</v>
+      </c>
+      <c r="BY3" s="37">
+        <v>0.195</v>
+      </c>
+      <c r="BZ3" s="37">
+        <v>0.144</v>
+      </c>
+      <c r="CA3" s="37">
+        <v>0.145</v>
+      </c>
+      <c r="CB3" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="CC3" s="37">
+        <v>0.204</v>
+      </c>
+      <c r="CD3" s="37">
+        <v>0.173</v>
+      </c>
+      <c r="CE3" s="37">
+        <v>0.169</v>
+      </c>
+      <c r="CF3" s="37">
+        <v>0.187</v>
+      </c>
+      <c r="CG3" s="37">
+        <v>0.199</v>
+      </c>
+      <c r="CH3" s="37">
+        <v>0.173</v>
+      </c>
+      <c r="CI3" s="37">
+        <v>0.133</v>
+      </c>
+      <c r="CJ3" s="37">
+        <v>0.175</v>
+      </c>
+      <c r="CK3" s="37">
+        <v>0.194</v>
+      </c>
+      <c r="CL3" s="37">
+        <v>0.208</v>
+      </c>
+      <c r="CM3" s="37">
+        <v>0.178</v>
+      </c>
+      <c r="CN3" s="37">
+        <v>0.275</v>
+      </c>
+      <c r="CO3" s="37">
+        <v>0.207</v>
+      </c>
+      <c r="CP3" s="37">
+        <v>0.236</v>
+      </c>
+      <c r="CQ3" s="37">
+        <v>0.197</v>
+      </c>
+      <c r="CR3" s="37">
+        <v>0.322</v>
+      </c>
+      <c r="CS3" s="37">
+        <v>0.232</v>
+      </c>
+      <c r="CT3" s="37">
+        <v>0.214</v>
+      </c>
+      <c r="CU3" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="CV3" s="37">
+        <v>0.274</v>
+      </c>
+      <c r="CW3" s="37">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="82">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="82">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="82">
+        <v>0.07</v>
+      </c>
+      <c r="F4" s="82">
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="82">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="82">
+        <v>0.14</v>
+      </c>
+      <c r="I4" s="82">
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="82">
+        <v>0.18</v>
+      </c>
+      <c r="K4" s="82">
+        <v>0.21</v>
+      </c>
+      <c r="L4" s="82">
+        <v>0.23</v>
+      </c>
+      <c r="M4" s="82">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="82">
+        <v>0.28</v>
+      </c>
+      <c r="O4" s="82">
+        <v>0.3</v>
+      </c>
+      <c r="P4" s="82">
+        <v>0.32</v>
+      </c>
+      <c r="Q4" s="82">
+        <v>0.34</v>
+      </c>
+      <c r="R4" s="82">
+        <v>0.37</v>
+      </c>
+      <c r="S4" s="82">
+        <v>0.39</v>
+      </c>
+      <c r="T4" s="82">
+        <v>0.41</v>
+      </c>
+      <c r="U4" s="82">
+        <v>0.45</v>
+      </c>
+      <c r="V4" s="82">
+        <v>0.48</v>
+      </c>
+      <c r="W4" s="82">
+        <v>0.49</v>
+      </c>
+      <c r="X4" s="82">
+        <v>0.51</v>
+      </c>
+      <c r="Y4" s="82">
+        <v>0.54</v>
+      </c>
+      <c r="Z4" s="82">
+        <v>0.55</v>
+      </c>
+      <c r="AA4" s="82">
+        <v>0.57</v>
+      </c>
+      <c r="AB4" s="82">
+        <v>0.59</v>
+      </c>
+      <c r="AC4" s="82">
+        <v>0.61</v>
+      </c>
+      <c r="AD4" s="82">
+        <v>0.65</v>
+      </c>
+      <c r="AE4" s="82">
+        <v>0.67</v>
+      </c>
+      <c r="AF4" s="82">
+        <v>0.69</v>
+      </c>
+      <c r="AG4" s="82">
+        <v>0.72</v>
+      </c>
+      <c r="AH4" s="82">
+        <v>0.73</v>
+      </c>
+      <c r="AI4" s="82">
+        <v>0.76</v>
+      </c>
+      <c r="AJ4" s="82">
+        <v>0.78</v>
+      </c>
+      <c r="AK4" s="82">
+        <v>0.81</v>
+      </c>
+      <c r="AL4" s="82">
+        <v>0.83</v>
+      </c>
+      <c r="AM4" s="82">
+        <v>0.85</v>
+      </c>
+      <c r="AN4" s="82">
+        <v>0.88</v>
+      </c>
+      <c r="AO4" s="82">
+        <v>0.9</v>
+      </c>
+      <c r="AP4" s="82">
+        <v>0.91</v>
+      </c>
+      <c r="AQ4" s="82">
+        <v>0.94</v>
+      </c>
+      <c r="AR4" s="82">
+        <v>0.96</v>
+      </c>
+      <c r="AS4" s="82">
+        <v>0.99</v>
+      </c>
+      <c r="AT4" s="82">
+        <v>1.01</v>
+      </c>
+      <c r="AU4" s="82">
+        <v>1.04</v>
+      </c>
+      <c r="AV4" s="82">
+        <v>1.07</v>
+      </c>
+      <c r="AW4" s="82">
+        <v>1.09</v>
+      </c>
+      <c r="AX4" s="82">
+        <v>1.1</v>
+      </c>
+      <c r="AY4" s="82">
+        <v>1.13</v>
+      </c>
+      <c r="AZ4" s="82">
+        <v>1.17</v>
+      </c>
+      <c r="BA4" s="82">
+        <v>1.21</v>
+      </c>
+      <c r="BB4" s="82">
+        <v>1.19</v>
+      </c>
+      <c r="BC4" s="82">
+        <v>1.22</v>
+      </c>
+      <c r="BD4" s="82">
+        <v>1.25</v>
+      </c>
+      <c r="BE4" s="82">
+        <v>1.31</v>
+      </c>
+      <c r="BF4" s="82">
+        <v>1.31</v>
+      </c>
+      <c r="BG4" s="82">
+        <v>1.34</v>
+      </c>
+      <c r="BH4" s="82">
+        <v>1.34</v>
+      </c>
+      <c r="BI4" s="82">
+        <v>1.38</v>
+      </c>
+      <c r="BJ4" s="82">
+        <v>1.39</v>
+      </c>
+      <c r="BK4" s="82">
+        <v>1.42</v>
+      </c>
+      <c r="BL4" s="82">
+        <v>1.45</v>
+      </c>
+      <c r="BM4" s="82">
+        <v>1.48</v>
+      </c>
+      <c r="BN4" s="82">
+        <v>1.47</v>
+      </c>
+      <c r="BO4" s="82">
+        <v>1.5</v>
+      </c>
+      <c r="BP4" s="82">
+        <v>1.53</v>
+      </c>
+      <c r="BQ4" s="82">
+        <v>1.55</v>
+      </c>
+      <c r="BR4" s="82">
+        <v>1.57</v>
+      </c>
+      <c r="BS4" s="82">
+        <v>1.63</v>
+      </c>
+      <c r="BT4" s="82">
+        <v>1.62</v>
+      </c>
+      <c r="BU4" s="82">
+        <v>1.65</v>
+      </c>
+      <c r="BV4" s="82">
+        <v>1.66</v>
+      </c>
+      <c r="BW4" s="82">
+        <v>2.05</v>
+      </c>
+      <c r="BX4" s="82">
+        <v>2.14</v>
+      </c>
+      <c r="BY4" s="82">
+        <v>2.17</v>
+      </c>
+      <c r="BZ4" s="82">
+        <v>2.19</v>
+      </c>
+      <c r="CA4" s="82">
+        <v>2.24</v>
+      </c>
+      <c r="CB4" s="82">
+        <v>2.24</v>
+      </c>
+      <c r="CC4" s="82">
+        <v>2.28</v>
+      </c>
+      <c r="CD4" s="82">
+        <v>2.3</v>
+      </c>
+      <c r="CE4" s="82">
+        <v>2.32</v>
+      </c>
+      <c r="CF4" s="82">
+        <v>2.37</v>
+      </c>
+      <c r="CG4" s="82">
+        <v>2.39</v>
+      </c>
+      <c r="CH4" s="82">
+        <v>2.44</v>
+      </c>
+      <c r="CI4" s="82">
+        <v>2.5</v>
+      </c>
+      <c r="CJ4" s="82">
+        <v>2.48</v>
+      </c>
+      <c r="CK4" s="82">
+        <v>2.73</v>
+      </c>
+      <c r="CL4" s="82">
+        <v>2.62</v>
+      </c>
+      <c r="CM4" s="82">
+        <v>2.56</v>
+      </c>
+      <c r="CN4" s="82">
+        <v>2.6</v>
+      </c>
+      <c r="CO4" s="82">
+        <v>2.61</v>
+      </c>
+      <c r="CP4" s="82">
+        <v>2.66</v>
+      </c>
+      <c r="CQ4" s="82">
+        <v>2.71</v>
+      </c>
+      <c r="CR4" s="82">
+        <v>2.74</v>
+      </c>
+      <c r="CS4" s="82">
+        <v>2.75</v>
+      </c>
+      <c r="CT4" s="82">
+        <v>2.78</v>
+      </c>
+      <c r="CU4" s="82">
+        <v>2.79</v>
+      </c>
+      <c r="CV4" s="82">
+        <v>2.84</v>
+      </c>
+      <c r="CW4" s="82">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
+      <c r="BL23" s="6"/>
+      <c r="BM23" s="6"/>
+      <c r="BN23" s="6"/>
+      <c r="BO23" s="6"/>
+      <c r="BP23" s="6"/>
+      <c r="BQ23" s="6"/>
+      <c r="BR23" s="6"/>
+      <c r="BS23" s="6"/>
+      <c r="BT23" s="6"/>
+      <c r="BU23" s="6"/>
+      <c r="BV23" s="6"/>
+      <c r="BW23" s="6"/>
+      <c r="BX23" s="6"/>
+      <c r="BY23" s="6"/>
+      <c r="BZ23" s="6"/>
+      <c r="CA23" s="6"/>
+      <c r="CB23" s="6"/>
+      <c r="CC23" s="6"/>
+      <c r="CD23" s="6"/>
+      <c r="CE23" s="6"/>
+      <c r="CF23" s="6"/>
+      <c r="CG23" s="6"/>
+      <c r="CH23" s="6"/>
+      <c r="CI23" s="6"/>
+      <c r="CJ23" s="6"/>
+      <c r="CK23" s="6"/>
+      <c r="CL23" s="6"/>
+      <c r="CM23" s="6"/>
+      <c r="CN23" s="6"/>
+      <c r="CO23" s="6"/>
+      <c r="CP23" s="6"/>
+      <c r="CQ23" s="6"/>
+      <c r="CR23" s="6"/>
+      <c r="CS23" s="6"/>
+      <c r="CT23" s="6"/>
+      <c r="CU23" s="6"/>
+      <c r="CV23" s="6"/>
+      <c r="CW23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="83">
+        <v>5.05003E-5</v>
+      </c>
+      <c r="C25" s="82">
+        <v>0.0127023</v>
+      </c>
+      <c r="D25" s="82">
+        <v>0.0250249</v>
+      </c>
+      <c r="E25" s="82">
+        <v>0.0338397</v>
+      </c>
+      <c r="F25" s="82">
+        <v>0.0418115</v>
+      </c>
+      <c r="G25" s="82">
+        <v>0.052019</v>
+      </c>
+      <c r="H25" s="82">
+        <v>0.0614676</v>
+      </c>
+      <c r="I25" s="82">
+        <v>0.06764</v>
+      </c>
+      <c r="J25" s="82">
+        <v>0.0809916</v>
+      </c>
+      <c r="K25" s="82">
+        <v>0.0901137</v>
+      </c>
+      <c r="L25" s="82">
+        <v>0.103723</v>
+      </c>
+      <c r="M25" s="82">
+        <v>0.104131</v>
+      </c>
+      <c r="N25" s="82">
+        <v>0.131365</v>
+      </c>
+      <c r="O25" s="82">
+        <v>0.123648</v>
+      </c>
+      <c r="P25" s="82">
+        <v>0.132231</v>
+      </c>
+      <c r="Q25" s="82">
+        <v>0.140564</v>
+      </c>
+      <c r="R25" s="82">
+        <v>0.152951</v>
+      </c>
+      <c r="S25" s="82">
+        <v>0.160732</v>
+      </c>
+      <c r="T25" s="82">
+        <v>0.168889</v>
+      </c>
+      <c r="U25" s="82">
+        <v>0.180264</v>
+      </c>
+      <c r="V25" s="82">
+        <v>0.187669</v>
+      </c>
+      <c r="W25" s="82">
+        <v>0.200238</v>
+      </c>
+      <c r="X25" s="82">
+        <v>0.20751</v>
+      </c>
+      <c r="Y25" s="82">
+        <v>0.258284</v>
+      </c>
+      <c r="Z25" s="82">
+        <v>0.234835</v>
+      </c>
+      <c r="AA25" s="82">
+        <v>0.249856</v>
+      </c>
+      <c r="AB25" s="82">
+        <v>0.247119</v>
+      </c>
+      <c r="AC25" s="82">
+        <v>0.255205</v>
+      </c>
+      <c r="AD25" s="82">
+        <v>0.264147</v>
+      </c>
+      <c r="AE25" s="82">
+        <v>0.272002</v>
+      </c>
+      <c r="AF25" s="82">
+        <v>0.283403</v>
+      </c>
+      <c r="AG25" s="82">
+        <v>0.295826</v>
+      </c>
+      <c r="AH25" s="82">
+        <v>0.304361</v>
+      </c>
+      <c r="AI25" s="82">
+        <v>0.3114</v>
+      </c>
+      <c r="AJ25" s="82">
+        <v>0.323938</v>
+      </c>
+      <c r="AK25" s="82">
+        <v>0.333119</v>
+      </c>
+      <c r="AL25" s="82">
+        <v>0.338252</v>
+      </c>
+      <c r="AM25" s="82">
+        <v>0.347007</v>
+      </c>
+      <c r="AN25" s="82">
+        <v>0.359134</v>
+      </c>
+      <c r="AO25" s="82">
+        <v>0.36966</v>
+      </c>
+      <c r="AP25" s="82">
+        <v>0.379403</v>
+      </c>
+      <c r="AQ25" s="82">
+        <v>0.387774</v>
+      </c>
+      <c r="AR25" s="82">
+        <v>0.395676</v>
+      </c>
+      <c r="AS25" s="82">
+        <v>0.408097</v>
+      </c>
+      <c r="AT25" s="82">
+        <v>0.416335</v>
+      </c>
+      <c r="AU25" s="82">
+        <v>0.424626</v>
+      </c>
+      <c r="AV25" s="82">
+        <v>0.43408</v>
+      </c>
+      <c r="AW25" s="82">
+        <v>0.442975</v>
+      </c>
+      <c r="AX25" s="82">
+        <v>0.452153</v>
+      </c>
+      <c r="AY25" s="82">
+        <v>0.466626</v>
+      </c>
+      <c r="AZ25" s="82">
+        <v>0.470388</v>
+      </c>
+      <c r="BA25" s="82">
+        <v>0.482246</v>
+      </c>
+      <c r="BB25" s="82">
+        <v>0.487566</v>
+      </c>
+      <c r="BC25" s="82">
+        <v>0.499865</v>
+      </c>
+      <c r="BD25" s="82">
+        <v>0.508983</v>
+      </c>
+      <c r="BE25" s="82">
+        <v>0.518241</v>
+      </c>
+      <c r="BF25" s="82">
+        <v>0.526761</v>
+      </c>
+      <c r="BG25" s="82">
+        <v>0.53841</v>
+      </c>
+      <c r="BH25" s="82">
+        <v>0.545232</v>
+      </c>
+      <c r="BI25" s="82">
+        <v>0.561158</v>
+      </c>
+      <c r="BJ25" s="82">
+        <v>0.572069</v>
+      </c>
+      <c r="BK25" s="82">
+        <v>0.577536</v>
+      </c>
+      <c r="BL25" s="82">
+        <v>0.582038</v>
+      </c>
+      <c r="BM25" s="82">
+        <v>0.597389</v>
+      </c>
+      <c r="BN25" s="82">
+        <v>0.604584</v>
+      </c>
+      <c r="BO25" s="82">
+        <v>0.614077</v>
+      </c>
+      <c r="BP25" s="82">
+        <v>0.622515</v>
+      </c>
+      <c r="BQ25" s="82">
+        <v>0.632959</v>
+      </c>
+      <c r="BR25" s="82">
+        <v>0.640264</v>
+      </c>
+      <c r="BS25" s="82">
+        <v>0.649238</v>
+      </c>
+      <c r="BT25" s="82">
+        <v>0.661466</v>
+      </c>
+      <c r="BU25" s="82">
+        <v>0.668937</v>
+      </c>
+      <c r="BV25" s="82">
+        <v>0.675455</v>
+      </c>
+      <c r="BW25" s="82">
+        <v>0.689504</v>
+      </c>
+      <c r="BX25" s="82">
+        <v>0.695854</v>
+      </c>
+      <c r="BY25" s="82">
+        <v>0.71225</v>
+      </c>
+      <c r="BZ25" s="82">
+        <v>0.719656</v>
+      </c>
+      <c r="CA25" s="82">
+        <v>0.723482</v>
+      </c>
+      <c r="CB25" s="82">
+        <v>0.733184</v>
+      </c>
+      <c r="CC25" s="82">
+        <v>0.746398</v>
+      </c>
+      <c r="CD25" s="82">
+        <v>0.754948</v>
+      </c>
+      <c r="CE25" s="82">
+        <v>0.770228</v>
+      </c>
+      <c r="CF25" s="82">
+        <v>0.788655</v>
+      </c>
+      <c r="CG25" s="82">
+        <v>0.77833</v>
+      </c>
+      <c r="CH25" s="82">
+        <v>0.798204</v>
+      </c>
+      <c r="CI25" s="82">
+        <v>0.800333</v>
+      </c>
+      <c r="CJ25" s="82">
+        <v>0.809501</v>
+      </c>
+      <c r="CK25" s="82">
+        <v>0.828882</v>
+      </c>
+      <c r="CL25" s="82">
+        <v>0.826967</v>
+      </c>
+      <c r="CM25" s="82">
+        <v>0.841404</v>
+      </c>
+      <c r="CN25" s="82">
+        <v>0.85517</v>
+      </c>
+      <c r="CO25" s="82">
+        <v>0.860419</v>
+      </c>
+      <c r="CP25" s="82">
+        <v>0.864149</v>
+      </c>
+      <c r="CQ25" s="82">
+        <v>0.881202</v>
+      </c>
+      <c r="CR25" s="82">
+        <v>0.888215</v>
+      </c>
+      <c r="CS25" s="82">
+        <v>1.01824</v>
+      </c>
+      <c r="CT25" s="82">
+        <v>0.907132</v>
+      </c>
+      <c r="CU25" s="82">
+        <v>0.917721</v>
+      </c>
+      <c r="CV25" s="82">
+        <v>0.931466</v>
+      </c>
+      <c r="CW25" s="82">
+        <v>0.933583</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="82">
+        <v>0.004</v>
+      </c>
+      <c r="I26" s="82">
+        <v>0.005</v>
+      </c>
+      <c r="J26" s="82">
+        <v>0.005</v>
+      </c>
+      <c r="K26" s="82">
+        <v>0.009</v>
+      </c>
+      <c r="L26" s="82">
+        <v>0.005</v>
+      </c>
+      <c r="M26" s="82">
+        <v>0.009</v>
+      </c>
+      <c r="N26" s="82">
+        <v>0.001</v>
+      </c>
+      <c r="O26" s="82">
+        <v>0.007</v>
+      </c>
+      <c r="P26" s="82">
+        <v>0.016</v>
+      </c>
+      <c r="Q26" s="82">
+        <v>0.012</v>
+      </c>
+      <c r="R26" s="82">
+        <v>0.013</v>
+      </c>
+      <c r="S26" s="82">
+        <v>0.012</v>
+      </c>
+      <c r="T26" s="82">
+        <v>0.018</v>
+      </c>
+      <c r="U26" s="82">
+        <v>0.018</v>
+      </c>
+      <c r="V26" s="82">
+        <v>0.016</v>
+      </c>
+      <c r="W26" s="82">
+        <v>0.018</v>
+      </c>
+      <c r="X26" s="82">
+        <v>0.018</v>
+      </c>
+      <c r="Y26" s="82">
+        <v>0.02</v>
+      </c>
+      <c r="Z26" s="82">
+        <v>0.019</v>
+      </c>
+      <c r="AA26" s="82">
+        <v>0.02</v>
+      </c>
+      <c r="AB26" s="82">
+        <v>0.024</v>
+      </c>
+      <c r="AC26" s="82">
+        <v>0.02</v>
+      </c>
+      <c r="AD26" s="82">
+        <v>0.024</v>
+      </c>
+      <c r="AE26" s="82">
+        <v>0.028</v>
+      </c>
+      <c r="AF26" s="82">
+        <v>0.029</v>
+      </c>
+      <c r="AG26" s="82">
+        <v>0.031</v>
+      </c>
+      <c r="AH26" s="82">
+        <v>0.024</v>
+      </c>
+      <c r="AI26" s="82">
+        <v>0.026</v>
+      </c>
+      <c r="AJ26" s="82">
+        <v>0.03</v>
+      </c>
+      <c r="AK26" s="82">
+        <v>0.031</v>
+      </c>
+      <c r="AL26" s="82">
+        <v>0.031</v>
+      </c>
+      <c r="AM26" s="82">
+        <v>0.033</v>
+      </c>
+      <c r="AN26" s="82">
+        <v>0.029</v>
+      </c>
+      <c r="AO26" s="82">
+        <v>0.032</v>
+      </c>
+      <c r="AP26" s="82">
+        <v>0.033</v>
+      </c>
+      <c r="AQ26" s="82">
+        <v>0.031</v>
+      </c>
+      <c r="AR26" s="82">
+        <v>0.035</v>
+      </c>
+      <c r="AS26" s="82">
+        <v>0.031</v>
+      </c>
+      <c r="AT26" s="82">
+        <v>0.038</v>
+      </c>
+      <c r="AU26" s="82">
+        <v>0.039</v>
+      </c>
+      <c r="AV26" s="82">
+        <v>0.038</v>
+      </c>
+      <c r="AW26" s="82">
+        <v>0.042</v>
+      </c>
+      <c r="AX26" s="82">
+        <v>0.039</v>
+      </c>
+      <c r="AY26" s="82">
+        <v>0.039</v>
+      </c>
+      <c r="AZ26" s="82">
+        <v>0.043</v>
+      </c>
+      <c r="BA26" s="82">
+        <v>0.041</v>
+      </c>
+      <c r="BB26" s="82">
+        <v>0.044</v>
+      </c>
+      <c r="BC26" s="82">
+        <v>0.041</v>
+      </c>
+      <c r="BD26" s="82">
+        <v>0.046</v>
+      </c>
+      <c r="BE26" s="82">
+        <v>0.043</v>
+      </c>
+      <c r="BF26" s="82">
+        <v>0.044</v>
+      </c>
+      <c r="BG26" s="82">
+        <v>0.052</v>
+      </c>
+      <c r="BH26" s="82">
+        <v>0.053</v>
+      </c>
+      <c r="BI26" s="82">
+        <v>0.048</v>
+      </c>
+      <c r="BJ26" s="82">
+        <v>0.054</v>
+      </c>
+      <c r="BK26" s="82">
+        <v>0.052</v>
+      </c>
+      <c r="BL26" s="82">
+        <v>0.056</v>
+      </c>
+      <c r="BM26" s="82">
+        <v>0.059</v>
+      </c>
+      <c r="BN26" s="82">
+        <v>0.052</v>
+      </c>
+      <c r="BO26" s="82">
+        <v>0.051</v>
+      </c>
+      <c r="BP26" s="82">
+        <v>0.059</v>
+      </c>
+      <c r="BQ26" s="82">
+        <v>0.057</v>
+      </c>
+      <c r="BR26" s="82">
+        <v>0.049</v>
+      </c>
+      <c r="BS26" s="82">
+        <v>0.058</v>
+      </c>
+      <c r="BT26" s="82">
+        <v>0.061</v>
+      </c>
+      <c r="BU26" s="82">
+        <v>0.06</v>
+      </c>
+      <c r="BV26" s="82">
+        <v>0.058</v>
+      </c>
+      <c r="BW26" s="82">
+        <v>0.053</v>
+      </c>
+      <c r="BX26" s="82">
+        <v>0.062</v>
+      </c>
+      <c r="BY26" s="82">
+        <v>0.056</v>
+      </c>
+      <c r="BZ26" s="82">
+        <v>0.059</v>
+      </c>
+      <c r="CA26" s="82">
+        <v>0.06</v>
+      </c>
+      <c r="CB26" s="82">
+        <v>0.06</v>
+      </c>
+      <c r="CC26" s="82">
+        <v>0.059</v>
+      </c>
+      <c r="CD26" s="82">
+        <v>0.067</v>
+      </c>
+      <c r="CE26" s="82">
+        <v>0.06</v>
+      </c>
+      <c r="CF26" s="82">
+        <v>0.065</v>
+      </c>
+      <c r="CG26" s="82">
+        <v>0.065</v>
+      </c>
+      <c r="CH26" s="82">
+        <v>0.061</v>
+      </c>
+      <c r="CI26" s="82">
+        <v>0.063</v>
+      </c>
+      <c r="CJ26" s="82">
+        <v>0.064</v>
+      </c>
+      <c r="CK26" s="82">
+        <v>0.069</v>
+      </c>
+      <c r="CL26" s="82">
+        <v>0.065</v>
+      </c>
+      <c r="CM26" s="82">
+        <v>0.07</v>
+      </c>
+      <c r="CN26" s="82">
+        <v>0.072</v>
+      </c>
+      <c r="CO26" s="82">
+        <v>0.072</v>
+      </c>
+      <c r="CP26" s="82">
+        <v>0.072</v>
+      </c>
+      <c r="CQ26" s="82">
+        <v>0.072</v>
+      </c>
+      <c r="CR26" s="82">
+        <v>0.085</v>
+      </c>
+      <c r="CS26" s="82">
+        <v>0.09</v>
+      </c>
+      <c r="CT26" s="82">
+        <v>0.082</v>
+      </c>
+      <c r="CU26" s="82">
+        <v>0.075</v>
+      </c>
+      <c r="CV26" s="82">
+        <v>0.084</v>
+      </c>
+      <c r="CW26" s="82">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="82">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="82">
+        <v>0.02</v>
+      </c>
+      <c r="E27" s="82">
+        <v>0.03</v>
+      </c>
+      <c r="F27" s="82">
+        <v>0.04</v>
+      </c>
+      <c r="G27" s="82">
+        <v>0.05</v>
+      </c>
+      <c r="H27" s="82">
+        <v>0.07</v>
+      </c>
+      <c r="I27" s="82">
+        <v>0.07</v>
+      </c>
+      <c r="J27" s="82">
+        <v>0.09</v>
+      </c>
+      <c r="K27" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="82">
+        <v>0.11</v>
+      </c>
+      <c r="M27" s="82">
+        <v>0.11</v>
+      </c>
+      <c r="N27" s="82">
+        <v>0.13</v>
+      </c>
+      <c r="O27" s="82">
+        <v>0.14</v>
+      </c>
+      <c r="P27" s="82">
+        <v>0.15</v>
+      </c>
+      <c r="Q27" s="82">
+        <v>0.17</v>
+      </c>
+      <c r="R27" s="82">
+        <v>0.17</v>
+      </c>
+      <c r="S27" s="82">
+        <v>0.18</v>
+      </c>
+      <c r="T27" s="82">
+        <v>0.19</v>
+      </c>
+      <c r="U27" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="V27" s="82">
+        <v>0.23</v>
+      </c>
+      <c r="W27" s="82">
+        <v>0.24</v>
+      </c>
+      <c r="X27" s="82">
+        <v>0.23</v>
+      </c>
+      <c r="Y27" s="82">
+        <v>0.24</v>
+      </c>
+      <c r="Z27" s="82">
+        <v>0.3</v>
+      </c>
+      <c r="AA27" s="82">
+        <v>0.26</v>
+      </c>
+      <c r="AB27" s="82">
+        <v>0.27</v>
+      </c>
+      <c r="AC27" s="82">
+        <v>0.29</v>
+      </c>
+      <c r="AD27" s="82">
+        <v>0.33</v>
+      </c>
+      <c r="AE27" s="82">
+        <v>0.31</v>
+      </c>
+      <c r="AF27" s="82">
+        <v>0.33</v>
+      </c>
+      <c r="AG27" s="82">
+        <v>0.33</v>
+      </c>
+      <c r="AH27" s="82">
+        <v>0.35</v>
+      </c>
+      <c r="AI27" s="82">
+        <v>0.37</v>
+      </c>
+      <c r="AJ27" s="82">
+        <v>0.36</v>
+      </c>
+      <c r="AK27" s="82">
+        <v>0.38</v>
+      </c>
+      <c r="AL27" s="82">
+        <v>0.42</v>
+      </c>
+      <c r="AM27" s="82">
+        <v>0.39</v>
+      </c>
+      <c r="AN27" s="82">
+        <v>0.45</v>
+      </c>
+      <c r="AO27" s="82">
+        <v>0.43</v>
+      </c>
+      <c r="AP27" s="82">
+        <v>0.49</v>
+      </c>
+      <c r="AQ27" s="82">
+        <v>0.44</v>
+      </c>
+      <c r="AR27" s="82">
+        <v>0.46</v>
+      </c>
+      <c r="AS27" s="82">
+        <v>0.46</v>
+      </c>
+      <c r="AT27" s="82">
+        <v>0.49</v>
+      </c>
+      <c r="AU27" s="82">
+        <v>0.48</v>
+      </c>
+      <c r="AV27" s="82">
+        <v>0.49</v>
+      </c>
+      <c r="AW27" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="AX27" s="82">
+        <v>0.51</v>
+      </c>
+      <c r="AY27" s="82">
+        <v>0.53</v>
+      </c>
+      <c r="AZ27" s="82">
+        <v>0.54</v>
+      </c>
+      <c r="BA27" s="82">
+        <v>0.56</v>
+      </c>
+      <c r="BB27" s="82">
+        <v>0.54</v>
+      </c>
+      <c r="BC27" s="82">
+        <v>0.56</v>
+      </c>
+      <c r="BD27" s="82">
+        <v>0.58</v>
+      </c>
+      <c r="BE27" s="82">
+        <v>0.58</v>
+      </c>
+      <c r="BF27" s="82">
+        <v>0.61</v>
+      </c>
+      <c r="BG27" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="BH27" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="BI27" s="82">
+        <v>0.65</v>
+      </c>
+      <c r="BJ27" s="82">
+        <v>0.66</v>
+      </c>
+      <c r="BK27" s="82">
+        <v>0.64</v>
+      </c>
+      <c r="BL27" s="82">
+        <v>0.67</v>
+      </c>
+      <c r="BM27" s="82">
+        <v>0.67</v>
+      </c>
+      <c r="BN27" s="82">
+        <v>0.7</v>
+      </c>
+      <c r="BO27" s="82">
+        <v>0.68</v>
+      </c>
+      <c r="BP27" s="82">
+        <v>0.7</v>
+      </c>
+      <c r="BQ27" s="82">
+        <v>0.71</v>
+      </c>
+      <c r="BR27" s="82">
+        <v>0.73</v>
+      </c>
+      <c r="BS27" s="82">
+        <v>0.76</v>
+      </c>
+      <c r="BT27" s="82">
+        <v>0.77</v>
+      </c>
+      <c r="BU27" s="82">
+        <v>0.83</v>
+      </c>
+      <c r="BV27" s="82">
+        <v>0.77</v>
+      </c>
+      <c r="BW27" s="82">
+        <v>0.82</v>
+      </c>
+      <c r="BX27" s="82">
+        <v>0.92</v>
+      </c>
+      <c r="BY27" s="82">
+        <v>0.79</v>
+      </c>
+      <c r="BZ27" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="CA27" s="82">
+        <v>0.82</v>
+      </c>
+      <c r="CB27" s="82">
+        <v>0.82</v>
+      </c>
+      <c r="CC27" s="82">
+        <v>0.84</v>
+      </c>
+      <c r="CD27" s="82">
+        <v>0.88</v>
+      </c>
+      <c r="CE27" s="82">
+        <v>0.88</v>
+      </c>
+      <c r="CF27" s="82">
+        <v>0.9</v>
+      </c>
+      <c r="CG27" s="82">
+        <v>0.92</v>
+      </c>
+      <c r="CH27" s="82">
+        <v>0.93</v>
+      </c>
+      <c r="CI27" s="82">
+        <v>0.91</v>
+      </c>
+      <c r="CJ27" s="82">
+        <v>0.92</v>
+      </c>
+      <c r="CK27" s="82">
+        <v>0.93</v>
+      </c>
+      <c r="CL27" s="82">
+        <v>0.94</v>
+      </c>
+      <c r="CM27" s="82">
+        <v>0.93</v>
+      </c>
+      <c r="CN27" s="82">
+        <v>0.96</v>
+      </c>
+      <c r="CO27" s="82">
+        <v>0.95</v>
+      </c>
+      <c r="CP27" s="82">
+        <v>0.97</v>
+      </c>
+      <c r="CQ27" s="82">
+        <v>0.99</v>
+      </c>
+      <c r="CR27" s="82">
+        <v>1.05</v>
+      </c>
+      <c r="CS27" s="82">
+        <v>1.0</v>
+      </c>
+      <c r="CT27" s="82">
+        <v>1.08</v>
+      </c>
+      <c r="CU27" s="82">
+        <v>1.08</v>
+      </c>
+      <c r="CV27" s="82">
+        <v>1.08</v>
+      </c>
+      <c r="CW27" s="82">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="6"/>
+      <c r="AT46" s="6"/>
+      <c r="AU46" s="6"/>
+      <c r="AV46" s="6"/>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="6"/>
+      <c r="BA46" s="6"/>
+      <c r="BB46" s="6"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="6"/>
+      <c r="BF46" s="6"/>
+      <c r="BG46" s="6"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="6"/>
+      <c r="BJ46" s="6"/>
+      <c r="BK46" s="6"/>
+      <c r="BL46" s="6"/>
+      <c r="BM46" s="6"/>
+      <c r="BN46" s="6"/>
+      <c r="BO46" s="6"/>
+      <c r="BP46" s="6"/>
+      <c r="BQ46" s="6"/>
+      <c r="BR46" s="6"/>
+      <c r="BS46" s="6"/>
+      <c r="BT46" s="6"/>
+      <c r="BU46" s="6"/>
+      <c r="BV46" s="6"/>
+      <c r="BW46" s="6"/>
+      <c r="BX46" s="6"/>
+      <c r="BY46" s="6"/>
+      <c r="BZ46" s="6"/>
+      <c r="CA46" s="6"/>
+      <c r="CB46" s="6"/>
+      <c r="CC46" s="6"/>
+      <c r="CD46" s="6"/>
+      <c r="CE46" s="6"/>
+      <c r="CF46" s="6"/>
+      <c r="CG46" s="6"/>
+      <c r="CH46" s="6"/>
+      <c r="CI46" s="6"/>
+      <c r="CJ46" s="6"/>
+      <c r="CK46" s="6"/>
+      <c r="CL46" s="6"/>
+      <c r="CM46" s="6"/>
+      <c r="CN46" s="6"/>
+      <c r="CO46" s="6"/>
+      <c r="CP46" s="6"/>
+      <c r="CQ46" s="6"/>
+      <c r="CR46" s="6"/>
+      <c r="CS46" s="6"/>
+      <c r="CT46" s="6"/>
+      <c r="CU46" s="6"/>
+      <c r="CV46" s="6"/>
+      <c r="CW46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.004363</v>
+      </c>
+      <c r="C48" s="31">
+        <v>0.007846</v>
+      </c>
+      <c r="D48" s="31">
+        <v>0.022049</v>
+      </c>
+      <c r="E48" s="31">
+        <v>0.02361</v>
+      </c>
+      <c r="F48" s="31">
+        <v>0.023768</v>
+      </c>
+      <c r="G48" s="31">
+        <v>0.02896</v>
+      </c>
+      <c r="H48" s="31">
+        <v>0.025261</v>
+      </c>
+      <c r="I48" s="31">
+        <v>0.020661</v>
+      </c>
+      <c r="J48" s="31">
+        <v>0.02736</v>
+      </c>
+      <c r="K48" s="31">
+        <v>0.033363</v>
+      </c>
+      <c r="L48" s="31">
+        <v>0.03314</v>
+      </c>
+      <c r="M48" s="31">
+        <v>0.031811</v>
+      </c>
+      <c r="N48" s="31">
+        <v>0.039674</v>
+      </c>
+      <c r="O48" s="31">
+        <v>0.039983</v>
+      </c>
+      <c r="P48" s="31">
+        <v>0.041036</v>
+      </c>
+      <c r="Q48" s="31">
+        <v>0.049048</v>
+      </c>
+      <c r="R48" s="31">
+        <v>0.076917</v>
+      </c>
+      <c r="S48" s="31">
+        <v>0.064965</v>
+      </c>
+      <c r="T48" s="31">
+        <v>0.053762</v>
+      </c>
+      <c r="U48" s="31">
+        <v>0.062777</v>
+      </c>
+      <c r="V48" s="31">
+        <v>0.068723</v>
+      </c>
+      <c r="W48" s="31">
+        <v>0.063316</v>
+      </c>
+      <c r="X48" s="31">
+        <v>0.082384</v>
+      </c>
+      <c r="Y48" s="31">
+        <v>0.072481</v>
+      </c>
+      <c r="Z48" s="31">
+        <v>0.09301</v>
+      </c>
+      <c r="AA48" s="31">
+        <v>0.105105</v>
+      </c>
+      <c r="AB48" s="31">
+        <v>0.084459</v>
+      </c>
+      <c r="AC48" s="31">
+        <v>0.105505</v>
+      </c>
+      <c r="AD48" s="31">
+        <v>0.105401</v>
+      </c>
+      <c r="AE48" s="31">
+        <v>0.102809</v>
+      </c>
+      <c r="AF48" s="31">
+        <v>0.10064</v>
+      </c>
+      <c r="AG48" s="31">
+        <v>0.111817</v>
+      </c>
+      <c r="AH48" s="31">
+        <v>0.140927</v>
+      </c>
+      <c r="AI48" s="31">
+        <v>0.135524</v>
+      </c>
+      <c r="AJ48" s="31">
+        <v>0.134898</v>
+      </c>
+      <c r="AK48" s="31">
+        <v>0.137602</v>
+      </c>
+      <c r="AL48" s="31">
+        <v>0.13128</v>
+      </c>
+      <c r="AM48" s="31">
+        <v>0.132709</v>
+      </c>
+      <c r="AN48" s="31">
+        <v>0.153984</v>
+      </c>
+      <c r="AO48" s="31">
+        <v>0.184088</v>
+      </c>
+      <c r="AP48" s="31">
+        <v>0.167669</v>
+      </c>
+      <c r="AQ48" s="31">
+        <v>0.179063</v>
+      </c>
+      <c r="AR48" s="31">
+        <v>0.174461</v>
+      </c>
+      <c r="AS48" s="31">
+        <v>0.194994</v>
+      </c>
+      <c r="AT48" s="31">
+        <v>0.210294</v>
+      </c>
+      <c r="AU48" s="31">
+        <v>0.196822</v>
+      </c>
+      <c r="AV48" s="31">
+        <v>0.182448</v>
+      </c>
+      <c r="AW48" s="31">
+        <v>0.211006</v>
+      </c>
+      <c r="AX48" s="31">
+        <v>0.203812</v>
+      </c>
+      <c r="AY48" s="31">
+        <v>0.189416</v>
+      </c>
+      <c r="AZ48" s="31">
+        <v>0.204558</v>
+      </c>
+      <c r="BA48" s="31">
+        <v>0.228585</v>
+      </c>
+      <c r="BB48" s="31">
+        <v>0.215578</v>
+      </c>
+      <c r="BC48" s="31">
+        <v>0.228489</v>
+      </c>
+      <c r="BD48" s="31">
+        <v>0.218608</v>
+      </c>
+      <c r="BE48" s="31">
+        <v>0.199008</v>
+      </c>
+      <c r="BF48" s="31">
+        <v>0.227534</v>
+      </c>
+      <c r="BG48" s="31">
+        <v>0.228304</v>
+      </c>
+      <c r="BH48" s="31">
+        <v>0.230944</v>
+      </c>
+      <c r="BI48" s="31">
+        <v>0.223533</v>
+      </c>
+      <c r="BJ48" s="31">
+        <v>0.222594</v>
+      </c>
+      <c r="BK48" s="31">
+        <v>0.219951</v>
+      </c>
+      <c r="BL48" s="31">
+        <v>0.226472</v>
+      </c>
+      <c r="BM48" s="31">
+        <v>0.27943</v>
+      </c>
+      <c r="BN48" s="31">
+        <v>0.281377</v>
+      </c>
+      <c r="BO48" s="31">
+        <v>0.297561</v>
+      </c>
+      <c r="BP48" s="31">
+        <v>0.277287</v>
+      </c>
+      <c r="BQ48" s="31">
+        <v>0.291983</v>
+      </c>
+      <c r="BR48" s="31">
+        <v>0.272442</v>
+      </c>
+      <c r="BS48" s="31">
+        <v>0.304644</v>
+      </c>
+      <c r="BT48" s="31">
+        <v>0.287713</v>
+      </c>
+      <c r="BU48" s="31">
+        <v>0.352632</v>
+      </c>
+      <c r="BV48" s="31">
+        <v>0.291081</v>
+      </c>
+      <c r="BW48" s="31">
+        <v>0.269735</v>
+      </c>
+      <c r="BX48" s="31">
+        <v>0.294112</v>
+      </c>
+      <c r="BY48" s="31">
+        <v>0.297886</v>
+      </c>
+      <c r="BZ48" s="31">
+        <v>0.305715</v>
+      </c>
+      <c r="CA48" s="31">
+        <v>0.364174</v>
+      </c>
+      <c r="CB48" s="31">
+        <v>0.386258</v>
+      </c>
+      <c r="CC48" s="31">
+        <v>0.373848</v>
+      </c>
+      <c r="CD48" s="31">
+        <v>0.416042</v>
+      </c>
+      <c r="CE48" s="31">
+        <v>0.486887</v>
+      </c>
+      <c r="CF48" s="31">
+        <v>0.439349</v>
+      </c>
+      <c r="CG48" s="31">
+        <v>0.382876</v>
+      </c>
+      <c r="CH48" s="31">
+        <v>0.375278</v>
+      </c>
+      <c r="CI48" s="31">
+        <v>0.396962</v>
+      </c>
+      <c r="CJ48" s="31">
+        <v>0.664625</v>
+      </c>
+      <c r="CK48" s="31">
+        <v>0.346083</v>
+      </c>
+      <c r="CL48" s="31">
+        <v>0.354696</v>
+      </c>
+      <c r="CM48" s="31">
+        <v>0.337807</v>
+      </c>
+      <c r="CN48" s="31">
+        <v>0.344565</v>
+      </c>
+      <c r="CO48" s="31">
+        <v>0.733236</v>
+      </c>
+      <c r="CP48" s="31">
+        <v>0.50465</v>
+      </c>
+      <c r="CQ48" s="31">
+        <v>0.383481</v>
+      </c>
+      <c r="CR48" s="31">
+        <v>0.603551</v>
+      </c>
+      <c r="CS48" s="31">
+        <v>0.385816</v>
+      </c>
+      <c r="CT48" s="31">
+        <v>0.371776</v>
+      </c>
+      <c r="CU48" s="31">
+        <v>0.37154</v>
+      </c>
+      <c r="CV48" s="31">
+        <v>0.403492</v>
+      </c>
+      <c r="CW48" s="31">
+        <v>0.381954</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="31">
+        <v>0.001</v>
+      </c>
+      <c r="D49" s="31">
+        <v>0.001</v>
+      </c>
+      <c r="E49" s="31">
+        <v>0.002</v>
+      </c>
+      <c r="F49" s="31">
+        <v>0.001</v>
+      </c>
+      <c r="G49" s="31">
+        <v>0.003</v>
+      </c>
+      <c r="H49" s="31">
+        <v>0.006</v>
+      </c>
+      <c r="I49" s="31">
+        <v>0.002</v>
+      </c>
+      <c r="J49" s="31">
+        <v>0.001</v>
+      </c>
+      <c r="K49" s="31">
+        <v>0.003</v>
+      </c>
+      <c r="L49" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="M49" s="31">
+        <v>0.006</v>
+      </c>
+      <c r="N49" s="31">
+        <v>0.008</v>
+      </c>
+      <c r="O49" s="31">
+        <v>0.011</v>
+      </c>
+      <c r="P49" s="31">
+        <v>0.005</v>
+      </c>
+      <c r="Q49" s="31">
+        <v>0.005</v>
+      </c>
+      <c r="R49" s="31">
+        <v>0.006</v>
+      </c>
+      <c r="S49" s="31">
+        <v>0.004</v>
+      </c>
+      <c r="T49" s="31">
+        <v>0.004</v>
+      </c>
+      <c r="U49" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="V49" s="31">
+        <v>0.007</v>
+      </c>
+      <c r="W49" s="31">
+        <v>0.015</v>
+      </c>
+      <c r="X49" s="31">
+        <v>0.008</v>
+      </c>
+      <c r="Y49" s="31">
+        <v>0.016</v>
+      </c>
+      <c r="Z49" s="31">
+        <v>0.015</v>
+      </c>
+      <c r="AA49" s="31">
+        <v>0.008</v>
+      </c>
+      <c r="AB49" s="31">
+        <v>0.011</v>
+      </c>
+      <c r="AC49" s="31">
+        <v>0.019</v>
+      </c>
+      <c r="AD49" s="31">
+        <v>0.017</v>
+      </c>
+      <c r="AE49" s="31">
+        <v>0.008</v>
+      </c>
+      <c r="AF49" s="31">
+        <v>0.018</v>
+      </c>
+      <c r="AG49" s="31">
+        <v>0.019</v>
+      </c>
+      <c r="AH49" s="31">
+        <v>0.018</v>
+      </c>
+      <c r="AI49" s="31">
+        <v>0.013</v>
+      </c>
+      <c r="AJ49" s="31">
+        <v>0.022</v>
+      </c>
+      <c r="AK49" s="31">
+        <v>0.015</v>
+      </c>
+      <c r="AL49" s="31">
+        <v>0.018</v>
+      </c>
+      <c r="AM49" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="AN49" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="AO49" s="31">
+        <v>0.021</v>
+      </c>
+      <c r="AP49" s="31">
+        <v>0.018</v>
+      </c>
+      <c r="AQ49" s="31">
+        <v>0.027</v>
+      </c>
+      <c r="AR49" s="31">
+        <v>0.016</v>
+      </c>
+      <c r="AS49" s="31">
+        <v>0.031</v>
+      </c>
+      <c r="AT49" s="31">
+        <v>0.024</v>
+      </c>
+      <c r="AU49" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="AV49" s="31">
+        <v>0.031</v>
+      </c>
+      <c r="AW49" s="31">
+        <v>0.032</v>
+      </c>
+      <c r="AX49" s="31">
+        <v>0.029</v>
+      </c>
+      <c r="AY49" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AZ49" s="31">
+        <v>0.027</v>
+      </c>
+      <c r="BA49" s="31">
+        <v>0.019</v>
+      </c>
+      <c r="BB49" s="31">
+        <v>0.014</v>
+      </c>
+      <c r="BC49" s="31">
+        <v>0.023</v>
+      </c>
+      <c r="BD49" s="31">
+        <v>0.025</v>
+      </c>
+      <c r="BE49" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="BF49" s="31">
+        <v>0.025</v>
+      </c>
+      <c r="BG49" s="31">
+        <v>0.027</v>
+      </c>
+      <c r="BH49" s="31">
+        <v>0.032</v>
+      </c>
+      <c r="BI49" s="31">
+        <v>0.016</v>
+      </c>
+      <c r="BJ49" s="31">
+        <v>0.026</v>
+      </c>
+      <c r="BK49" s="31">
+        <v>0.038</v>
+      </c>
+      <c r="BL49" s="31">
+        <v>0.044</v>
+      </c>
+      <c r="BM49" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="BN49" s="31">
+        <v>0.028</v>
+      </c>
+      <c r="BO49" s="31">
+        <v>0.039</v>
+      </c>
+      <c r="BP49" s="31">
+        <v>0.039</v>
+      </c>
+      <c r="BQ49" s="31">
+        <v>0.035</v>
+      </c>
+      <c r="BR49" s="31">
+        <v>0.037</v>
+      </c>
+      <c r="BS49" s="31">
+        <v>0.034</v>
+      </c>
+      <c r="BT49" s="31">
+        <v>0.038</v>
+      </c>
+      <c r="BU49" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="BV49" s="31">
+        <v>0.044</v>
+      </c>
+      <c r="BW49" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="BX49" s="31">
+        <v>0.045</v>
+      </c>
+      <c r="BY49" s="31">
+        <v>0.041</v>
+      </c>
+      <c r="BZ49" s="31">
+        <v>0.038</v>
+      </c>
+      <c r="CA49" s="31">
+        <v>0.032</v>
+      </c>
+      <c r="CB49" s="31">
+        <v>0.031</v>
+      </c>
+      <c r="CC49" s="31">
+        <v>0.037</v>
+      </c>
+      <c r="CD49" s="31">
+        <v>0.039</v>
+      </c>
+      <c r="CE49" s="31">
+        <v>0.047</v>
+      </c>
+      <c r="CF49" s="31">
+        <v>0.051</v>
+      </c>
+      <c r="CG49" s="31">
+        <v>0.049</v>
+      </c>
+      <c r="CH49" s="31">
+        <v>0.029</v>
+      </c>
+      <c r="CI49" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="CJ49" s="31">
+        <v>0.053</v>
+      </c>
+      <c r="CK49" s="31">
+        <v>0.062</v>
+      </c>
+      <c r="CL49" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="CM49" s="31">
+        <v>0.049</v>
+      </c>
+      <c r="CN49" s="31">
+        <v>0.056</v>
+      </c>
+      <c r="CO49" s="31">
+        <v>0.072</v>
+      </c>
+      <c r="CP49" s="31">
+        <v>0.07</v>
+      </c>
+      <c r="CQ49" s="31">
+        <v>0.096</v>
+      </c>
+      <c r="CR49" s="31">
+        <v>0.091</v>
+      </c>
+      <c r="CS49" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="CT49" s="31">
+        <v>0.085</v>
+      </c>
+      <c r="CU49" s="31">
+        <v>0.097</v>
+      </c>
+      <c r="CV49" s="31">
+        <v>0.085</v>
+      </c>
+      <c r="CW49" s="31">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="82">
+        <v>0.12</v>
+      </c>
+      <c r="C50" s="82">
+        <v>0.19</v>
+      </c>
+      <c r="D50" s="82">
+        <v>0.31</v>
+      </c>
+      <c r="E50" s="82">
+        <v>0.39</v>
+      </c>
+      <c r="F50" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="82">
+        <v>0.67</v>
+      </c>
+      <c r="H50" s="82">
+        <v>0.89</v>
+      </c>
+      <c r="I50" s="82">
+        <v>0.73</v>
+      </c>
+      <c r="J50" s="82">
+        <v>0.92</v>
+      </c>
+      <c r="K50" s="82">
+        <v>1.04</v>
+      </c>
+      <c r="L50" s="82">
+        <v>1.33</v>
+      </c>
+      <c r="M50" s="82">
+        <v>1.28</v>
+      </c>
+      <c r="N50" s="82">
+        <v>1.32</v>
+      </c>
+      <c r="O50" s="82">
+        <v>1.56</v>
+      </c>
+      <c r="P50" s="82">
+        <v>1.63</v>
+      </c>
+      <c r="Q50" s="82">
+        <v>1.71</v>
+      </c>
+      <c r="R50" s="82">
+        <v>1.83</v>
+      </c>
+      <c r="S50" s="82">
+        <v>1.93</v>
+      </c>
+      <c r="T50" s="82">
+        <v>2.01</v>
+      </c>
+      <c r="U50" s="82">
+        <v>2.2</v>
+      </c>
+      <c r="V50" s="82">
+        <v>2.18</v>
+      </c>
+      <c r="W50" s="82">
+        <v>2.4</v>
+      </c>
+      <c r="X50" s="82">
+        <v>2.56</v>
+      </c>
+      <c r="Y50" s="82">
+        <v>2.59</v>
+      </c>
+      <c r="Z50" s="82">
+        <v>2.76</v>
+      </c>
+      <c r="AA50" s="82">
+        <v>2.9</v>
+      </c>
+      <c r="AB50" s="82">
+        <v>2.91</v>
+      </c>
+      <c r="AC50" s="82">
+        <v>2.97</v>
+      </c>
+      <c r="AD50" s="82">
+        <v>3.18</v>
+      </c>
+      <c r="AE50" s="82">
+        <v>3.24</v>
+      </c>
+      <c r="AF50" s="82">
+        <v>3.39</v>
+      </c>
+      <c r="AG50" s="82">
+        <v>3.43</v>
+      </c>
+      <c r="AH50" s="82">
+        <v>3.29</v>
+      </c>
+      <c r="AI50" s="82">
+        <v>3.52</v>
+      </c>
+      <c r="AJ50" s="82">
+        <v>3.55</v>
+      </c>
+      <c r="AK50" s="82">
+        <v>3.75</v>
+      </c>
+      <c r="AL50" s="82">
+        <v>3.94</v>
+      </c>
+      <c r="AM50" s="82">
+        <v>4.08</v>
+      </c>
+      <c r="AN50" s="82">
+        <v>4.12</v>
+      </c>
+      <c r="AO50" s="82">
+        <v>4.17</v>
+      </c>
+      <c r="AP50" s="82">
+        <v>4.35</v>
+      </c>
+      <c r="AQ50" s="82">
+        <v>4.94</v>
+      </c>
+      <c r="AR50" s="82">
+        <v>4.71</v>
+      </c>
+      <c r="AS50" s="82">
+        <v>5.1</v>
+      </c>
+      <c r="AT50" s="82">
+        <v>4.98</v>
+      </c>
+      <c r="AU50" s="82">
+        <v>5.34</v>
+      </c>
+      <c r="AV50" s="82">
+        <v>5.18</v>
+      </c>
+      <c r="AW50" s="82">
+        <v>5.38</v>
+      </c>
+      <c r="AX50" s="82">
+        <v>5.51</v>
+      </c>
+      <c r="AY50" s="82">
+        <v>5.76</v>
+      </c>
+      <c r="AZ50" s="82">
+        <v>5.67</v>
+      </c>
+      <c r="BA50" s="82">
+        <v>5.85</v>
+      </c>
+      <c r="BB50" s="82">
+        <v>5.9</v>
+      </c>
+      <c r="BC50" s="82">
+        <v>5.99</v>
+      </c>
+      <c r="BD50" s="82">
+        <v>6.12</v>
+      </c>
+      <c r="BE50" s="82">
+        <v>6.07</v>
+      </c>
+      <c r="BF50" s="82">
+        <v>6.29</v>
+      </c>
+      <c r="BG50" s="82">
+        <v>6.37</v>
+      </c>
+      <c r="BH50" s="82">
+        <v>6.31</v>
+      </c>
+      <c r="BI50" s="82">
+        <v>6.6</v>
+      </c>
+      <c r="BJ50" s="82">
+        <v>6.91</v>
+      </c>
+      <c r="BK50" s="82">
+        <v>6.78</v>
+      </c>
+      <c r="BL50" s="82">
+        <v>6.66</v>
+      </c>
+      <c r="BM50" s="82">
+        <v>6.78</v>
+      </c>
+      <c r="BN50" s="82">
+        <v>6.88</v>
+      </c>
+      <c r="BO50" s="82">
+        <v>7.16</v>
+      </c>
+      <c r="BP50" s="82">
+        <v>9.14</v>
+      </c>
+      <c r="BQ50" s="82">
+        <v>9.27</v>
+      </c>
+      <c r="BR50" s="82">
+        <v>9.09</v>
+      </c>
+      <c r="BS50" s="82">
+        <v>9.24</v>
+      </c>
+      <c r="BT50" s="82">
+        <v>9.36</v>
+      </c>
+      <c r="BU50" s="82">
+        <v>9.22</v>
+      </c>
+      <c r="BV50" s="82">
+        <v>9.34</v>
+      </c>
+      <c r="BW50" s="82">
+        <v>9.55</v>
+      </c>
+      <c r="BX50" s="82">
+        <v>9.8</v>
+      </c>
+      <c r="BY50" s="82">
+        <v>9.96</v>
+      </c>
+      <c r="BZ50" s="82">
+        <v>10.69</v>
+      </c>
+      <c r="CA50" s="82">
+        <v>9.93</v>
+      </c>
+      <c r="CB50" s="82">
+        <v>9.99</v>
+      </c>
+      <c r="CC50" s="82">
+        <v>10.44</v>
+      </c>
+      <c r="CD50" s="82">
+        <v>11.03</v>
+      </c>
+      <c r="CE50" s="82">
+        <v>11.4</v>
+      </c>
+      <c r="CF50" s="82">
+        <v>10.59</v>
+      </c>
+      <c r="CG50" s="82">
+        <v>10.88</v>
+      </c>
+      <c r="CH50" s="82">
+        <v>10.84</v>
+      </c>
+      <c r="CI50" s="82">
+        <v>11.21</v>
+      </c>
+      <c r="CJ50" s="82">
+        <v>11.79</v>
+      </c>
+      <c r="CK50" s="82">
+        <v>11.47</v>
+      </c>
+      <c r="CL50" s="82">
+        <v>11.4</v>
+      </c>
+      <c r="CM50" s="82">
+        <v>13.66</v>
+      </c>
+      <c r="CN50" s="82">
+        <v>11.63</v>
+      </c>
+      <c r="CO50" s="82">
+        <v>13.7</v>
+      </c>
+      <c r="CP50" s="82">
+        <v>11.97</v>
+      </c>
+      <c r="CQ50" s="82">
+        <v>12.2</v>
+      </c>
+      <c r="CR50" s="82">
+        <v>12.24</v>
+      </c>
+      <c r="CS50" s="82">
+        <v>12.39</v>
+      </c>
+      <c r="CT50" s="82">
+        <v>12.51</v>
+      </c>
+      <c r="CU50" s="82">
+        <v>12.47</v>
+      </c>
+      <c r="CV50" s="82">
+        <v>12.17</v>
+      </c>
+      <c r="CW50" s="82">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6"/>
+      <c r="AM69" s="6"/>
+      <c r="AN69" s="6"/>
+      <c r="AO69" s="6"/>
+      <c r="AP69" s="6"/>
+      <c r="AQ69" s="6"/>
+      <c r="AR69" s="6"/>
+      <c r="AS69" s="6"/>
+      <c r="AT69" s="6"/>
+      <c r="AU69" s="6"/>
+      <c r="AV69" s="6"/>
+      <c r="AW69" s="6"/>
+      <c r="AX69" s="6"/>
+      <c r="AY69" s="6"/>
+      <c r="AZ69" s="6"/>
+      <c r="BA69" s="6"/>
+      <c r="BB69" s="6"/>
+      <c r="BC69" s="6"/>
+      <c r="BD69" s="6"/>
+      <c r="BE69" s="6"/>
+      <c r="BF69" s="6"/>
+      <c r="BG69" s="6"/>
+      <c r="BH69" s="6"/>
+      <c r="BI69" s="6"/>
+      <c r="BJ69" s="6"/>
+      <c r="BK69" s="6"/>
+      <c r="BL69" s="6"/>
+      <c r="BM69" s="6"/>
+      <c r="BN69" s="6"/>
+      <c r="BO69" s="6"/>
+      <c r="BP69" s="6"/>
+      <c r="BQ69" s="6"/>
+      <c r="BR69" s="6"/>
+      <c r="BS69" s="6"/>
+      <c r="BT69" s="6"/>
+      <c r="BU69" s="6"/>
+      <c r="BV69" s="6"/>
+      <c r="BW69" s="6"/>
+      <c r="BX69" s="6"/>
+      <c r="BY69" s="6"/>
+      <c r="BZ69" s="6"/>
+      <c r="CA69" s="6"/>
+      <c r="CB69" s="6"/>
+      <c r="CC69" s="6"/>
+      <c r="CD69" s="6"/>
+      <c r="CE69" s="6"/>
+      <c r="CF69" s="6"/>
+      <c r="CG69" s="6"/>
+      <c r="CH69" s="6"/>
+      <c r="CI69" s="6"/>
+      <c r="CJ69" s="6"/>
+      <c r="CK69" s="6"/>
+      <c r="CL69" s="6"/>
+      <c r="CM69" s="6"/>
+      <c r="CN69" s="6"/>
+      <c r="CO69" s="6"/>
+      <c r="CP69" s="6"/>
+      <c r="CQ69" s="6"/>
+      <c r="CR69" s="6"/>
+      <c r="CS69" s="6"/>
+      <c r="CT69" s="6"/>
+      <c r="CU69" s="6"/>
+      <c r="CV69" s="6"/>
+      <c r="CW69" s="6"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="82">
+        <v>0.043972</v>
+      </c>
+      <c r="C71" s="82">
+        <v>0.08119</v>
+      </c>
+      <c r="D71" s="82">
+        <v>0.109146</v>
+      </c>
+      <c r="E71" s="82">
+        <v>0.135063</v>
+      </c>
+      <c r="F71" s="82">
+        <v>0.154161</v>
+      </c>
+      <c r="G71" s="82">
+        <v>0.191028</v>
+      </c>
+      <c r="H71" s="82">
+        <v>0.241587</v>
+      </c>
+      <c r="I71" s="82">
+        <v>0.265962</v>
+      </c>
+      <c r="J71" s="82">
+        <v>0.294417</v>
+      </c>
+      <c r="K71" s="82">
+        <v>0.326847</v>
+      </c>
+      <c r="L71" s="82">
+        <v>0.374751</v>
+      </c>
+      <c r="M71" s="82">
+        <v>0.425171</v>
+      </c>
+      <c r="N71" s="82">
+        <v>0.449187</v>
+      </c>
+      <c r="O71" s="82">
+        <v>0.491352</v>
+      </c>
+      <c r="P71" s="82">
+        <v>0.536509</v>
+      </c>
+      <c r="Q71" s="82">
+        <v>0.563043</v>
+      </c>
+      <c r="R71" s="82">
+        <v>0.639456</v>
+      </c>
+      <c r="S71" s="82">
+        <v>0.686097</v>
+      </c>
+      <c r="T71" s="82">
+        <v>0.683974</v>
+      </c>
+      <c r="U71" s="82">
+        <v>0.715026</v>
+      </c>
+      <c r="V71" s="82">
+        <v>0.737505</v>
+      </c>
+      <c r="W71" s="82">
+        <v>0.792683</v>
+      </c>
+      <c r="X71" s="82">
+        <v>0.814717</v>
+      </c>
+      <c r="Y71" s="82">
+        <v>0.895454</v>
+      </c>
+      <c r="Z71" s="82">
+        <v>0.938964</v>
+      </c>
+      <c r="AA71" s="82">
+        <v>0.958752</v>
+      </c>
+      <c r="AB71" s="82">
+        <v>1.00729</v>
+      </c>
+      <c r="AC71" s="82">
+        <v>1.02221</v>
+      </c>
+      <c r="AD71" s="82">
+        <v>1.09074</v>
+      </c>
+      <c r="AE71" s="82">
+        <v>1.13873</v>
+      </c>
+      <c r="AF71" s="82">
+        <v>1.18655</v>
+      </c>
+      <c r="AG71" s="82">
+        <v>1.20811</v>
+      </c>
+      <c r="AH71" s="82">
+        <v>1.24172</v>
+      </c>
+      <c r="AI71" s="82">
+        <v>1.27359</v>
+      </c>
+      <c r="AJ71" s="82">
+        <v>1.32621</v>
+      </c>
+      <c r="AK71" s="82">
+        <v>1.39978</v>
+      </c>
+      <c r="AL71" s="82">
+        <v>1.399</v>
+      </c>
+      <c r="AM71" s="82">
+        <v>1.45511</v>
+      </c>
+      <c r="AN71" s="82">
+        <v>1.48276</v>
+      </c>
+      <c r="AO71" s="82">
+        <v>1.50192</v>
+      </c>
+      <c r="AP71" s="82">
+        <v>1.55306</v>
+      </c>
+      <c r="AQ71" s="82">
+        <v>1.59123</v>
+      </c>
+      <c r="AR71" s="82">
+        <v>1.63608</v>
+      </c>
+      <c r="AS71" s="82">
+        <v>1.67069</v>
+      </c>
+      <c r="AT71" s="82">
+        <v>1.71564</v>
+      </c>
+      <c r="AU71" s="82">
+        <v>1.75921</v>
+      </c>
+      <c r="AV71" s="82">
+        <v>1.81445</v>
+      </c>
+      <c r="AW71" s="82">
+        <v>1.86854</v>
+      </c>
+      <c r="AX71" s="82">
+        <v>1.92777</v>
+      </c>
+      <c r="AY71" s="82">
+        <v>1.95521</v>
+      </c>
+      <c r="AZ71" s="82">
+        <v>1.97778</v>
+      </c>
+      <c r="BA71" s="82">
+        <v>2.02466</v>
+      </c>
+      <c r="BB71" s="82">
+        <v>2.06025</v>
+      </c>
+      <c r="BC71" s="82">
+        <v>2.10335</v>
+      </c>
+      <c r="BD71" s="82">
+        <v>2.20853</v>
+      </c>
+      <c r="BE71" s="82">
+        <v>2.25152</v>
+      </c>
+      <c r="BF71" s="82">
+        <v>2.28132</v>
+      </c>
+      <c r="BG71" s="82">
+        <v>2.28398</v>
+      </c>
+      <c r="BH71" s="82">
+        <v>2.34655</v>
+      </c>
+      <c r="BI71" s="82">
+        <v>2.45701</v>
+      </c>
+      <c r="BJ71" s="82">
+        <v>2.41923</v>
+      </c>
+      <c r="BK71" s="82">
+        <v>2.52567</v>
+      </c>
+      <c r="BL71" s="82">
+        <v>2.56274</v>
+      </c>
+      <c r="BM71" s="82">
+        <v>2.60642</v>
+      </c>
+      <c r="BN71" s="82">
+        <v>2.6674</v>
+      </c>
+      <c r="BO71" s="82">
+        <v>2.69875</v>
+      </c>
+      <c r="BP71" s="82">
+        <v>2.69147</v>
+      </c>
+      <c r="BQ71" s="82">
+        <v>2.75333</v>
+      </c>
+      <c r="BR71" s="82">
+        <v>2.77715</v>
+      </c>
+      <c r="BS71" s="82">
+        <v>2.81782</v>
+      </c>
+      <c r="BT71" s="82">
+        <v>2.89566</v>
+      </c>
+      <c r="BU71" s="82">
+        <v>2.97876</v>
+      </c>
+      <c r="BV71" s="82">
+        <v>2.97835</v>
+      </c>
+      <c r="BW71" s="82">
+        <v>3.01454</v>
+      </c>
+      <c r="BX71" s="82">
+        <v>3.02525</v>
+      </c>
+      <c r="BY71" s="82">
+        <v>3.06222</v>
+      </c>
+      <c r="BZ71" s="82">
+        <v>3.13976</v>
+      </c>
+      <c r="CA71" s="82">
+        <v>3.17084</v>
+      </c>
+      <c r="CB71" s="82">
+        <v>3.19971</v>
+      </c>
+      <c r="CC71" s="82">
+        <v>3.24942</v>
+      </c>
+      <c r="CD71" s="82">
+        <v>3.24955</v>
+      </c>
+      <c r="CE71" s="82">
+        <v>3.35694</v>
+      </c>
+      <c r="CF71" s="82">
+        <v>3.36401</v>
+      </c>
+      <c r="CG71" s="82">
+        <v>3.41115</v>
+      </c>
+      <c r="CH71" s="82">
+        <v>3.41378</v>
+      </c>
+      <c r="CI71" s="82">
+        <v>3.50787</v>
+      </c>
+      <c r="CJ71" s="82">
+        <v>3.51162</v>
+      </c>
+      <c r="CK71" s="82">
+        <v>3.57208</v>
+      </c>
+      <c r="CL71" s="82">
+        <v>3.61399</v>
+      </c>
+      <c r="CM71" s="82">
+        <v>3.64415</v>
+      </c>
+      <c r="CN71" s="82">
+        <v>3.67676</v>
+      </c>
+      <c r="CO71" s="82">
+        <v>3.7934</v>
+      </c>
+      <c r="CP71" s="82">
+        <v>3.81713</v>
+      </c>
+      <c r="CQ71" s="82">
+        <v>3.89843</v>
+      </c>
+      <c r="CR71" s="82">
+        <v>3.98014</v>
+      </c>
+      <c r="CS71" s="82">
+        <v>4.04151</v>
+      </c>
+      <c r="CT71" s="82">
+        <v>4.05188</v>
+      </c>
+      <c r="CU71" s="82">
+        <v>4.07961</v>
+      </c>
+      <c r="CV71" s="82">
+        <v>4.12963</v>
+      </c>
+      <c r="CW71" s="82">
+        <v>4.12918</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="D72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="F72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="G72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="31">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="N72" s="31">
+        <v>0.0099009900990099</v>
+      </c>
+      <c r="O72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="P72" s="31">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="Q72" s="31">
+        <v>0.0099009900990099</v>
+      </c>
+      <c r="R72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="S72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="T72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="U72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="V72" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="X72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="Y72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="Z72" s="31">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="AA72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="AB72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AC72" s="31">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="AD72" s="31">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="AE72" s="31">
+        <v>0.0099009900990099</v>
+      </c>
+      <c r="AF72" s="31">
+        <v>0.0396039603960396</v>
+      </c>
+      <c r="AG72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="AH72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AI72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="AJ72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AK72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="AL72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AM72" s="31">
+        <v>0.0396039603960396</v>
+      </c>
+      <c r="AN72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="AO72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="AP72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="AQ72" s="31">
+        <v>0.0396039603960396</v>
+      </c>
+      <c r="AR72" s="31">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="AS72" s="31">
+        <v>0.0792079207920792</v>
+      </c>
+      <c r="AT72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AU72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AV72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AW72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="AX72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="AY72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="AZ72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="BA72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="BB72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="BC72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="BD72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="BE72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="BF72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="BG72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="BH72" s="31">
+        <v>0.0792079207920792</v>
+      </c>
+      <c r="BI72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="BJ72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="BK72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="BL72" s="31">
+        <v>0.099009900990099</v>
+      </c>
+      <c r="BM72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="BN72" s="31">
+        <v>0.0792079207920792</v>
+      </c>
+      <c r="BO72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="BP72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="BQ72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="BR72" s="31">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="BS72" s="31">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="BT72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="BU72" s="31">
+        <v>0.0792079207920792</v>
+      </c>
+      <c r="BV72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="BW72" s="31">
+        <v>0.099009900990099</v>
+      </c>
+      <c r="BX72" s="31">
+        <v>0.247524752475247</v>
+      </c>
+      <c r="BY72" s="31">
+        <v>0.217821782178217</v>
+      </c>
+      <c r="BZ72" s="31">
+        <v>0.148514851485148</v>
+      </c>
+      <c r="CA72" s="31">
+        <v>0.148514851485148</v>
+      </c>
+      <c r="CB72" s="31">
+        <v>0.0792079207920792</v>
+      </c>
+      <c r="CC72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="CD72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="CE72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="CF72" s="31">
+        <v>0.227722772277227</v>
+      </c>
+      <c r="CG72" s="31">
+        <v>0.158415841584158</v>
+      </c>
+      <c r="CH72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="CI72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="CJ72" s="31">
+        <v>0.148514851485148</v>
+      </c>
+      <c r="CK72" s="31">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="CL72" s="31">
+        <v>0.0792079207920792</v>
+      </c>
+      <c r="CM72" s="31">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="CN72" s="31">
+        <v>0.0693069306930693</v>
+      </c>
+      <c r="CO72" s="31">
+        <v>0.118811881188118</v>
+      </c>
+      <c r="CP72" s="31">
+        <v>0.158415841584158</v>
+      </c>
+      <c r="CQ72" s="31">
+        <v>0.168316831683168</v>
+      </c>
+      <c r="CR72" s="31">
+        <v>0.138613861386138</v>
+      </c>
+      <c r="CS72" s="31">
+        <v>0.168316831683168</v>
+      </c>
+      <c r="CT72" s="31">
+        <v>0.188118811881188</v>
+      </c>
+      <c r="CU72" s="31">
+        <v>0.178217821782178</v>
+      </c>
+      <c r="CV72" s="31">
+        <v>0.118811881188118</v>
+      </c>
+      <c r="CW72" s="31">
+        <v>0.168316831683168</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="82">
+        <v>0.08</v>
+      </c>
+      <c r="C73" s="82">
+        <v>0.09</v>
+      </c>
+      <c r="D73" s="82">
+        <v>0.14</v>
+      </c>
+      <c r="E73" s="82">
+        <v>0.18</v>
+      </c>
+      <c r="F73" s="82">
+        <v>0.23</v>
+      </c>
+      <c r="G73" s="82">
+        <v>0.26</v>
+      </c>
+      <c r="H73" s="82">
+        <v>0.33</v>
+      </c>
+      <c r="I73" s="82">
+        <v>0.34</v>
+      </c>
+      <c r="J73" s="82">
+        <v>0.4</v>
+      </c>
+      <c r="K73" s="82">
+        <v>0.45</v>
+      </c>
+      <c r="L73" s="82">
+        <v>0.54</v>
+      </c>
+      <c r="M73" s="82">
+        <v>0.58</v>
+      </c>
+      <c r="N73" s="82">
+        <v>0.58</v>
+      </c>
+      <c r="O73" s="82">
+        <v>0.7</v>
+      </c>
+      <c r="P73" s="82">
+        <v>0.73</v>
+      </c>
+      <c r="Q73" s="82">
+        <v>0.74</v>
+      </c>
+      <c r="R73" s="82">
+        <v>0.73</v>
+      </c>
+      <c r="S73" s="82">
+        <v>0.88</v>
+      </c>
+      <c r="T73" s="82">
+        <v>0.96</v>
+      </c>
+      <c r="U73" s="82">
+        <v>0.93</v>
+      </c>
+      <c r="V73" s="82">
+        <v>1.0</v>
+      </c>
+      <c r="W73" s="82">
+        <v>0.99</v>
+      </c>
+      <c r="X73" s="82">
+        <v>1.04</v>
+      </c>
+      <c r="Y73" s="82">
+        <v>1.05</v>
+      </c>
+      <c r="Z73" s="82">
+        <v>1.12</v>
+      </c>
+      <c r="AA73" s="82">
+        <v>1.16</v>
+      </c>
+      <c r="AB73" s="82">
+        <v>1.19</v>
+      </c>
+      <c r="AC73" s="82">
+        <v>1.35</v>
+      </c>
+      <c r="AD73" s="82">
+        <v>1.42</v>
+      </c>
+      <c r="AE73" s="82">
+        <v>1.31</v>
+      </c>
+      <c r="AF73" s="82">
+        <v>1.5</v>
+      </c>
+      <c r="AG73" s="82">
+        <v>1.44</v>
+      </c>
+      <c r="AH73" s="82">
+        <v>1.55</v>
+      </c>
+      <c r="AI73" s="82">
+        <v>1.55</v>
+      </c>
+      <c r="AJ73" s="82">
+        <v>1.54</v>
+      </c>
+      <c r="AK73" s="82">
+        <v>1.68</v>
+      </c>
+      <c r="AL73" s="82">
+        <v>1.73</v>
+      </c>
+      <c r="AM73" s="82">
+        <v>1.77</v>
+      </c>
+      <c r="AN73" s="82">
+        <v>1.76</v>
+      </c>
+      <c r="AO73" s="82">
+        <v>1.82</v>
+      </c>
+      <c r="AP73" s="82">
+        <v>1.84</v>
+      </c>
+      <c r="AQ73" s="82">
+        <v>1.88</v>
+      </c>
+      <c r="AR73" s="82">
+        <v>1.93</v>
+      </c>
+      <c r="AS73" s="82">
+        <v>2.17</v>
+      </c>
+      <c r="AT73" s="82">
+        <v>2.11</v>
+      </c>
+      <c r="AU73" s="82">
+        <v>2.28</v>
+      </c>
+      <c r="AV73" s="82">
+        <v>2.16</v>
+      </c>
+      <c r="AW73" s="82">
+        <v>2.25</v>
+      </c>
+      <c r="AX73" s="82">
+        <v>2.23</v>
+      </c>
+      <c r="AY73" s="82">
+        <v>2.27</v>
+      </c>
+      <c r="AZ73" s="82">
+        <v>2.37</v>
+      </c>
+      <c r="BA73" s="82">
+        <v>2.35</v>
+      </c>
+      <c r="BB73" s="82">
+        <v>2.44</v>
+      </c>
+      <c r="BC73" s="82">
+        <v>2.42</v>
+      </c>
+      <c r="BD73" s="82">
+        <v>2.51</v>
+      </c>
+      <c r="BE73" s="82">
+        <v>2.59</v>
+      </c>
+      <c r="BF73" s="82">
+        <v>2.63</v>
+      </c>
+      <c r="BG73" s="82">
+        <v>3.13</v>
+      </c>
+      <c r="BH73" s="82">
+        <v>2.74</v>
+      </c>
+      <c r="BI73" s="82">
+        <v>2.73</v>
+      </c>
+      <c r="BJ73" s="82">
+        <v>2.85</v>
+      </c>
+      <c r="BK73" s="82">
+        <v>2.84</v>
+      </c>
+      <c r="BL73" s="82">
+        <v>2.85</v>
+      </c>
+      <c r="BM73" s="82">
+        <v>3.26</v>
+      </c>
+      <c r="BN73" s="82">
+        <v>3.13</v>
+      </c>
+      <c r="BO73" s="82">
+        <v>3.12</v>
+      </c>
+      <c r="BP73" s="82">
+        <v>3.23</v>
+      </c>
+      <c r="BQ73" s="82">
+        <v>3.25</v>
+      </c>
+      <c r="BR73" s="82">
+        <v>3.09</v>
+      </c>
+      <c r="BS73" s="82">
+        <v>3.14</v>
+      </c>
+      <c r="BT73" s="82">
+        <v>3.19</v>
+      </c>
+      <c r="BU73" s="82">
+        <v>3.38</v>
+      </c>
+      <c r="BV73" s="82">
+        <v>3.43</v>
+      </c>
+      <c r="BW73" s="82">
+        <v>3.51</v>
+      </c>
+      <c r="BX73" s="82">
+        <v>3.54</v>
+      </c>
+      <c r="BY73" s="82">
+        <v>3.57</v>
+      </c>
+      <c r="BZ73" s="82">
+        <v>3.66</v>
+      </c>
+      <c r="CA73" s="82">
+        <v>3.67</v>
+      </c>
+      <c r="CB73" s="82">
+        <v>3.59</v>
+      </c>
+      <c r="CC73" s="82">
+        <v>3.76</v>
+      </c>
+      <c r="CD73" s="82">
+        <v>3.72</v>
+      </c>
+      <c r="CE73" s="82">
+        <v>3.71</v>
+      </c>
+      <c r="CF73" s="82">
+        <v>3.73</v>
+      </c>
+      <c r="CG73" s="82">
+        <v>3.84</v>
+      </c>
+      <c r="CH73" s="82">
+        <v>3.84</v>
+      </c>
+      <c r="CI73" s="82">
+        <v>4.01</v>
+      </c>
+      <c r="CJ73" s="82">
+        <v>4.0</v>
+      </c>
+      <c r="CK73" s="82">
+        <v>4.0</v>
+      </c>
+      <c r="CL73" s="82">
+        <v>4.13</v>
+      </c>
+      <c r="CM73" s="82">
+        <v>4.17</v>
+      </c>
+      <c r="CN73" s="82">
+        <v>4.23</v>
+      </c>
+      <c r="CO73" s="82">
+        <v>4.42</v>
+      </c>
+      <c r="CP73" s="82">
+        <v>4.36</v>
+      </c>
+      <c r="CQ73" s="82">
+        <v>4.39</v>
+      </c>
+      <c r="CR73" s="82">
+        <v>4.39</v>
+      </c>
+      <c r="CS73" s="82">
+        <v>4.47</v>
+      </c>
+      <c r="CT73" s="82">
+        <v>4.71</v>
+      </c>
+      <c r="CU73" s="82">
+        <v>4.49</v>
+      </c>
+      <c r="CV73" s="82">
+        <v>4.77</v>
+      </c>
+      <c r="CW73" s="82">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+      <c r="AF92" s="6"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="6"/>
+      <c r="AI92" s="6"/>
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="6"/>
+      <c r="AM92" s="6"/>
+      <c r="AN92" s="6"/>
+      <c r="AO92" s="6"/>
+      <c r="AP92" s="6"/>
+      <c r="AQ92" s="6"/>
+      <c r="AR92" s="6"/>
+      <c r="AS92" s="6"/>
+      <c r="AT92" s="6"/>
+      <c r="AU92" s="6"/>
+      <c r="AV92" s="6"/>
+      <c r="AW92" s="6"/>
+      <c r="AX92" s="6"/>
+      <c r="AY92" s="6"/>
+      <c r="AZ92" s="6"/>
+      <c r="BA92" s="6"/>
+      <c r="BB92" s="6"/>
+      <c r="BC92" s="6"/>
+      <c r="BD92" s="6"/>
+      <c r="BE92" s="6"/>
+      <c r="BF92" s="6"/>
+      <c r="BG92" s="6"/>
+      <c r="BH92" s="6"/>
+      <c r="BI92" s="6"/>
+      <c r="BJ92" s="6"/>
+      <c r="BK92" s="6"/>
+      <c r="BL92" s="6"/>
+      <c r="BM92" s="6"/>
+      <c r="BN92" s="6"/>
+      <c r="BO92" s="6"/>
+      <c r="BP92" s="6"/>
+      <c r="BQ92" s="6"/>
+      <c r="BR92" s="6"/>
+      <c r="BS92" s="6"/>
+      <c r="BT92" s="6"/>
+      <c r="BU92" s="6"/>
+      <c r="BV92" s="6"/>
+      <c r="BW92" s="6"/>
+      <c r="BX92" s="6"/>
+      <c r="BY92" s="6"/>
+      <c r="BZ92" s="6"/>
+      <c r="CA92" s="6"/>
+      <c r="CB92" s="6"/>
+      <c r="CC92" s="6"/>
+      <c r="CD92" s="6"/>
+      <c r="CE92" s="6"/>
+      <c r="CF92" s="6"/>
+      <c r="CG92" s="6"/>
+      <c r="CH92" s="6"/>
+      <c r="CI92" s="6"/>
+      <c r="CJ92" s="6"/>
+      <c r="CK92" s="6"/>
+      <c r="CL92" s="6"/>
+      <c r="CM92" s="6"/>
+      <c r="CN92" s="6"/>
+      <c r="CO92" s="6"/>
+      <c r="CP92" s="6"/>
+      <c r="CQ92" s="6"/>
+      <c r="CR92" s="6"/>
+      <c r="CS92" s="6"/>
+      <c r="CT92" s="6"/>
+      <c r="CU92" s="6"/>
+      <c r="CV92" s="6"/>
+      <c r="CW92" s="6"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="84">
+        <v>9.49999E-5</v>
+      </c>
+      <c r="C94" s="31">
+        <v>0.095679</v>
+      </c>
+      <c r="D94" s="31">
+        <v>0.188325</v>
+      </c>
+      <c r="E94" s="31">
+        <v>0.388534</v>
+      </c>
+      <c r="F94" s="31">
+        <v>0.353247</v>
+      </c>
+      <c r="G94" s="31">
+        <v>0.42545</v>
+      </c>
+      <c r="H94" s="31">
+        <v>0.431484</v>
+      </c>
+      <c r="I94" s="31">
+        <v>0.556715</v>
+      </c>
+      <c r="J94" s="31">
+        <v>0.747288</v>
+      </c>
+      <c r="K94" s="31">
+        <v>0.632692</v>
+      </c>
+      <c r="L94" s="31">
+        <v>0.693908</v>
+      </c>
+      <c r="M94" s="31">
+        <v>0.750235</v>
+      </c>
+      <c r="N94" s="31">
+        <v>0.832536</v>
+      </c>
+      <c r="O94" s="31">
+        <v>0.907641</v>
+      </c>
+      <c r="P94" s="31">
+        <v>0.964284</v>
+      </c>
+      <c r="Q94" s="31">
+        <v>1.59225</v>
+      </c>
+      <c r="R94" s="31">
+        <v>1.21994</v>
+      </c>
+      <c r="S94" s="31">
+        <v>1.18342</v>
+      </c>
+      <c r="T94" s="31">
+        <v>1.47074</v>
+      </c>
+      <c r="U94" s="31">
+        <v>1.23258</v>
+      </c>
+      <c r="V94" s="31">
+        <v>1.30329</v>
+      </c>
+      <c r="W94" s="31">
+        <v>1.41314</v>
+      </c>
+      <c r="X94" s="31">
+        <v>1.49585</v>
+      </c>
+      <c r="Y94" s="31">
+        <v>1.50087</v>
+      </c>
+      <c r="Z94" s="31">
+        <v>1.54979</v>
+      </c>
+      <c r="AA94" s="31">
+        <v>1.71182</v>
+      </c>
+      <c r="AB94" s="31">
+        <v>1.69964</v>
+      </c>
+      <c r="AC94" s="31">
+        <v>1.75021</v>
+      </c>
+      <c r="AD94" s="31">
+        <v>1.83379</v>
+      </c>
+      <c r="AE94" s="31">
+        <v>2.11359</v>
+      </c>
+      <c r="AF94" s="31">
+        <v>2.03079</v>
+      </c>
+      <c r="AG94" s="31">
+        <v>2.00046</v>
+      </c>
+      <c r="AH94" s="31">
+        <v>2.07663</v>
+      </c>
+      <c r="AI94" s="31">
+        <v>2.17322</v>
+      </c>
+      <c r="AJ94" s="31">
+        <v>2.20209</v>
+      </c>
+      <c r="AK94" s="31">
+        <v>2.33527</v>
+      </c>
+      <c r="AL94" s="31">
+        <v>2.34043</v>
+      </c>
+      <c r="AM94" s="31">
+        <v>2.40706</v>
+      </c>
+      <c r="AN94" s="31">
+        <v>2.46997</v>
+      </c>
+      <c r="AO94" s="31">
+        <v>2.67092</v>
+      </c>
+      <c r="AP94" s="31">
+        <v>2.68122</v>
+      </c>
+      <c r="AQ94" s="31">
+        <v>2.65528</v>
+      </c>
+      <c r="AR94" s="31">
+        <v>2.77494</v>
+      </c>
+      <c r="AS94" s="31">
+        <v>2.91631</v>
+      </c>
+      <c r="AT94" s="31">
+        <v>2.84682</v>
+      </c>
+      <c r="AU94" s="31">
+        <v>2.93828</v>
+      </c>
+      <c r="AV94" s="31">
+        <v>3.04457</v>
+      </c>
+      <c r="AW94" s="31">
+        <v>3.08428</v>
+      </c>
+      <c r="AX94" s="31">
+        <v>3.08909</v>
+      </c>
+      <c r="AY94" s="31">
+        <v>3.27881</v>
+      </c>
+      <c r="AZ94" s="31">
+        <v>3.22961</v>
+      </c>
+      <c r="BA94" s="31">
+        <v>3.29207</v>
+      </c>
+      <c r="BB94" s="31">
+        <v>3.47848</v>
+      </c>
+      <c r="BC94" s="31">
+        <v>3.42535</v>
+      </c>
+      <c r="BD94" s="31">
+        <v>3.52501</v>
+      </c>
+      <c r="BE94" s="31">
+        <v>3.59795</v>
+      </c>
+      <c r="BF94" s="31">
+        <v>3.62078</v>
+      </c>
+      <c r="BG94" s="31">
+        <v>3.71045</v>
+      </c>
+      <c r="BH94" s="31">
+        <v>3.80142</v>
+      </c>
+      <c r="BI94" s="31">
+        <v>3.82591</v>
+      </c>
+      <c r="BJ94" s="31">
+        <v>4.08467</v>
+      </c>
+      <c r="BK94" s="31">
+        <v>3.96289</v>
+      </c>
+      <c r="BL94" s="31">
+        <v>4.07611</v>
+      </c>
+      <c r="BM94" s="31">
+        <v>4.11019</v>
+      </c>
+      <c r="BN94" s="31">
+        <v>4.14594</v>
+      </c>
+      <c r="BO94" s="31">
+        <v>4.26026</v>
+      </c>
+      <c r="BP94" s="31">
+        <v>4.29273</v>
+      </c>
+      <c r="BQ94" s="31">
+        <v>4.32293</v>
+      </c>
+      <c r="BR94" s="31">
+        <v>4.48182</v>
+      </c>
+      <c r="BS94" s="31">
+        <v>4.51157</v>
+      </c>
+      <c r="BT94" s="31">
+        <v>4.66817</v>
+      </c>
+      <c r="BU94" s="31">
+        <v>4.63358</v>
+      </c>
+      <c r="BV94" s="31">
+        <v>4.81313</v>
+      </c>
+      <c r="BW94" s="31">
+        <v>4.72492</v>
+      </c>
+      <c r="BX94" s="31">
+        <v>4.85284</v>
+      </c>
+      <c r="BY94" s="31">
+        <v>4.84286</v>
+      </c>
+      <c r="BZ94" s="31">
+        <v>5.01003</v>
+      </c>
+      <c r="CA94" s="31">
+        <v>4.9885</v>
+      </c>
+      <c r="CB94" s="31">
+        <v>5.1013</v>
+      </c>
+      <c r="CC94" s="31">
+        <v>5.16507</v>
+      </c>
+      <c r="CD94" s="31">
+        <v>5.22256</v>
+      </c>
+      <c r="CE94" s="31">
+        <v>5.22848</v>
+      </c>
+      <c r="CF94" s="31">
+        <v>5.37739</v>
+      </c>
+      <c r="CG94" s="31">
+        <v>5.47906</v>
+      </c>
+      <c r="CH94" s="31">
+        <v>5.55115</v>
+      </c>
+      <c r="CI94" s="31">
+        <v>5.48424</v>
+      </c>
+      <c r="CJ94" s="31">
+        <v>5.65356</v>
+      </c>
+      <c r="CK94" s="31">
+        <v>5.65257</v>
+      </c>
+      <c r="CL94" s="31">
+        <v>5.70001</v>
+      </c>
+      <c r="CM94" s="31">
+        <v>5.85611</v>
+      </c>
+      <c r="CN94" s="31">
+        <v>5.81349</v>
+      </c>
+      <c r="CO94" s="31">
+        <v>5.92264</v>
+      </c>
+      <c r="CP94" s="31">
+        <v>6.02712</v>
+      </c>
+      <c r="CQ94" s="31">
+        <v>6.02127</v>
+      </c>
+      <c r="CR94" s="31">
+        <v>6.21055</v>
+      </c>
+      <c r="CS94" s="31">
+        <v>6.16688</v>
+      </c>
+      <c r="CT94" s="31">
+        <v>6.24686</v>
+      </c>
+      <c r="CU94" s="31">
+        <v>6.30735</v>
+      </c>
+      <c r="CV94" s="31">
+        <v>6.36109</v>
+      </c>
+      <c r="CW94" s="31">
+        <v>6.45579</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="82">
+        <v>0.0099009900990099</v>
+      </c>
+      <c r="C95" s="82">
+        <v>0.0396039603960396</v>
+      </c>
+      <c r="D95" s="82">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="E95" s="82">
+        <v>0.0396039603960396</v>
+      </c>
+      <c r="F95" s="82">
+        <v>0.0495049504950495</v>
+      </c>
+      <c r="G95" s="82">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="H95" s="82">
+        <v>0.099009900990099</v>
+      </c>
+      <c r="I95" s="82">
+        <v>0.118811881188118</v>
+      </c>
+      <c r="J95" s="82">
+        <v>0.099009900990099</v>
+      </c>
+      <c r="K95" s="82">
+        <v>0.148514851485148</v>
+      </c>
+      <c r="L95" s="82">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="M95" s="82">
+        <v>0.138613861386138</v>
+      </c>
+      <c r="N95" s="82">
+        <v>0.128712871287128</v>
+      </c>
+      <c r="O95" s="82">
+        <v>0.138613861386138</v>
+      </c>
+      <c r="P95" s="82">
+        <v>0.148514851485148</v>
+      </c>
+      <c r="Q95" s="82">
+        <v>0.168316831683168</v>
+      </c>
+      <c r="R95" s="82">
+        <v>0.168316831683168</v>
+      </c>
+      <c r="S95" s="82">
+        <v>0.178217821782178</v>
+      </c>
+      <c r="T95" s="82">
+        <v>0.178217821782178</v>
+      </c>
+      <c r="U95" s="82">
+        <v>0.227722772277227</v>
+      </c>
+      <c r="V95" s="82">
+        <v>0.217821782178217</v>
+      </c>
+      <c r="W95" s="82">
+        <v>0.227722772277227</v>
+      </c>
+      <c r="X95" s="82">
+        <v>0.237623762376237</v>
+      </c>
+      <c r="Y95" s="82">
+        <v>0.306930693069306</v>
+      </c>
+      <c r="Z95" s="82">
+        <v>0.277227722772277</v>
+      </c>
+      <c r="AA95" s="82">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="AB95" s="82">
+        <v>0.287128712871287</v>
+      </c>
+      <c r="AC95" s="82">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="AD95" s="82">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="AE95" s="82">
+        <v>0.306930693069306</v>
+      </c>
+      <c r="AF95" s="82">
+        <v>0.366336633663366</v>
+      </c>
+      <c r="AG95" s="82">
+        <v>0.386138613861386</v>
+      </c>
+      <c r="AH95" s="82">
+        <v>0.386138613861386</v>
+      </c>
+      <c r="AI95" s="82">
+        <v>0.405940594059405</v>
+      </c>
+      <c r="AJ95" s="82">
+        <v>0.346534653465346</v>
+      </c>
+      <c r="AK95" s="82">
+        <v>0.386138613861386</v>
+      </c>
+      <c r="AL95" s="82">
+        <v>0.435643564356435</v>
+      </c>
+      <c r="AM95" s="82">
+        <v>0.396039603960396</v>
+      </c>
+      <c r="AN95" s="82">
+        <v>0.475247524752475</v>
+      </c>
+      <c r="AO95" s="82">
+        <v>0.524752475247524</v>
+      </c>
+      <c r="AP95" s="82">
+        <v>0.495049504950495</v>
+      </c>
+      <c r="AQ95" s="82">
+        <v>0.465346534653465</v>
+      </c>
+      <c r="AR95" s="82">
+        <v>0.574257425742574</v>
+      </c>
+      <c r="AS95" s="82">
+        <v>0.475247524752475</v>
+      </c>
+      <c r="AT95" s="82">
+        <v>0.485148514851485</v>
+      </c>
+      <c r="AU95" s="82">
+        <v>0.455445544554455</v>
+      </c>
+      <c r="AV95" s="82">
+        <v>0.544554455445544</v>
+      </c>
+      <c r="AW95" s="82">
+        <v>0.653465346534653</v>
+      </c>
+      <c r="AX95" s="82">
+        <v>0.564356435643564</v>
+      </c>
+      <c r="AY95" s="82">
+        <v>0.584158415841584</v>
+      </c>
+      <c r="AZ95" s="82">
+        <v>0.633663366336633</v>
+      </c>
+      <c r="BA95" s="82">
+        <v>0.653465346534653</v>
+      </c>
+      <c r="BB95" s="82">
+        <v>0.594059405940594</v>
+      </c>
+      <c r="BC95" s="82">
+        <v>0.603960396039603</v>
+      </c>
+      <c r="BD95" s="82">
+        <v>0.693069306930693</v>
+      </c>
+      <c r="BE95" s="82">
+        <v>0.643564356435643</v>
+      </c>
+      <c r="BF95" s="82">
+        <v>0.732673267326732</v>
+      </c>
+      <c r="BG95" s="82">
+        <v>0.762376237623762</v>
+      </c>
+      <c r="BH95" s="82">
+        <v>0.772277227722772</v>
+      </c>
+      <c r="BI95" s="82">
+        <v>0.792079207920792</v>
+      </c>
+      <c r="BJ95" s="82">
+        <v>0.742574257425742</v>
+      </c>
+      <c r="BK95" s="82">
+        <v>0.811881188118811</v>
+      </c>
+      <c r="BL95" s="82">
+        <v>0.861386138613861</v>
+      </c>
+      <c r="BM95" s="82">
+        <v>0.752475247524752</v>
+      </c>
+      <c r="BN95" s="82">
+        <v>0.821782178217821</v>
+      </c>
+      <c r="BO95" s="82">
+        <v>0.801980198019802</v>
+      </c>
+      <c r="BP95" s="82">
+        <v>0.851485148514851</v>
+      </c>
+      <c r="BQ95" s="82">
+        <v>0.92079207920792</v>
+      </c>
+      <c r="BR95" s="82">
+        <v>0.93069306930693</v>
+      </c>
+      <c r="BS95" s="82">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="BT95" s="82">
+        <v>1.00990099009901</v>
+      </c>
+      <c r="BU95" s="82">
+        <v>1.06930693069306</v>
+      </c>
+      <c r="BV95" s="82">
+        <v>1.1089108910891</v>
+      </c>
+      <c r="BW95" s="82">
+        <v>1.08910891089108</v>
+      </c>
+      <c r="BX95" s="82">
+        <v>1.03960396039603</v>
+      </c>
+      <c r="BY95" s="82">
+        <v>1.08910891089108</v>
+      </c>
+      <c r="BZ95" s="82">
+        <v>1.04950495049504</v>
+      </c>
+      <c r="CA95" s="82">
+        <v>1.19801980198019</v>
+      </c>
+      <c r="CB95" s="82">
+        <v>1.3069306930693</v>
+      </c>
+      <c r="CC95" s="82">
+        <v>1.17821782178217</v>
+      </c>
+      <c r="CD95" s="82">
+        <v>1.14851485148514</v>
+      </c>
+      <c r="CE95" s="82">
+        <v>1.28712871287128</v>
+      </c>
+      <c r="CF95" s="82">
+        <v>1.32673267326732</v>
+      </c>
+      <c r="CG95" s="82">
+        <v>1.17821782178217</v>
+      </c>
+      <c r="CH95" s="82">
+        <v>1.41584158415841</v>
+      </c>
+      <c r="CI95" s="82">
+        <v>1.45544554455445</v>
+      </c>
+      <c r="CJ95" s="82">
+        <v>1.41584158415841</v>
+      </c>
+      <c r="CK95" s="82">
+        <v>1.43564356435643</v>
+      </c>
+      <c r="CL95" s="82">
+        <v>1.4059405940594</v>
+      </c>
+      <c r="CM95" s="82">
+        <v>1.38613861386138</v>
+      </c>
+      <c r="CN95" s="82">
+        <v>1.38613861386138</v>
+      </c>
+      <c r="CO95" s="82">
+        <v>1.42574257425742</v>
+      </c>
+      <c r="CP95" s="82">
+        <v>1.52475247524752</v>
+      </c>
+      <c r="CQ95" s="82">
+        <v>1.48514851485148</v>
+      </c>
+      <c r="CR95" s="82">
+        <v>1.55445544554455</v>
+      </c>
+      <c r="CS95" s="82">
+        <v>1.57425742574257</v>
+      </c>
+      <c r="CT95" s="82">
+        <v>1.63366336633663</v>
+      </c>
+      <c r="CU95" s="82">
+        <v>1.54455445544554</v>
+      </c>
+      <c r="CV95" s="82">
+        <v>1.6039603960396</v>
+      </c>
+      <c r="CW95" s="82">
+        <v>1.63366336633663</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="C96" s="82">
+        <v>0.08</v>
+      </c>
+      <c r="D96" s="82">
+        <v>0.15</v>
+      </c>
+      <c r="E96" s="82">
+        <v>0.22</v>
+      </c>
+      <c r="F96" s="82">
+        <v>0.31</v>
+      </c>
+      <c r="G96" s="82">
+        <v>0.39</v>
+      </c>
+      <c r="H96" s="82">
+        <v>0.47</v>
+      </c>
+      <c r="I96" s="82">
+        <v>0.55</v>
+      </c>
+      <c r="J96" s="82">
+        <v>0.62</v>
+      </c>
+      <c r="K96" s="82">
+        <v>0.7</v>
+      </c>
+      <c r="L96" s="82">
+        <v>0.78</v>
+      </c>
+      <c r="M96" s="82">
+        <v>0.87</v>
+      </c>
+      <c r="N96" s="82">
+        <v>0.94</v>
+      </c>
+      <c r="O96" s="82">
+        <v>1.01</v>
+      </c>
+      <c r="P96" s="82">
+        <v>1.09</v>
+      </c>
+      <c r="Q96" s="82">
+        <v>1.18</v>
+      </c>
+      <c r="R96" s="82">
+        <v>1.26</v>
+      </c>
+      <c r="S96" s="82">
+        <v>1.38</v>
+      </c>
+      <c r="T96" s="82">
+        <v>1.41</v>
+      </c>
+      <c r="U96" s="82">
+        <v>1.48</v>
+      </c>
+      <c r="V96" s="82">
+        <v>1.58</v>
+      </c>
+      <c r="W96" s="82">
+        <v>1.68</v>
+      </c>
+      <c r="X96" s="82">
+        <v>1.72</v>
+      </c>
+      <c r="Y96" s="82">
+        <v>1.81</v>
+      </c>
+      <c r="Z96" s="82">
+        <v>1.87</v>
+      </c>
+      <c r="AA96" s="82">
+        <v>1.98</v>
+      </c>
+      <c r="AB96" s="82">
+        <v>2.09</v>
+      </c>
+      <c r="AC96" s="82">
+        <v>2.66</v>
+      </c>
+      <c r="AD96" s="82">
+        <v>2.75</v>
+      </c>
+      <c r="AE96" s="82">
+        <v>2.86</v>
+      </c>
+      <c r="AF96" s="82">
+        <v>2.94</v>
+      </c>
+      <c r="AG96" s="82">
+        <v>3.05</v>
+      </c>
+      <c r="AH96" s="82">
+        <v>3.17</v>
+      </c>
+      <c r="AI96" s="82">
+        <v>3.26</v>
+      </c>
+      <c r="AJ96" s="82">
+        <v>3.33</v>
+      </c>
+      <c r="AK96" s="82">
+        <v>3.44</v>
+      </c>
+      <c r="AL96" s="82">
+        <v>3.54</v>
+      </c>
+      <c r="AM96" s="82">
+        <v>3.64</v>
+      </c>
+      <c r="AN96" s="82">
+        <v>3.92</v>
+      </c>
+      <c r="AO96" s="82">
+        <v>3.86</v>
+      </c>
+      <c r="AP96" s="82">
+        <v>3.99</v>
+      </c>
+      <c r="AQ96" s="82">
+        <v>4.05</v>
+      </c>
+      <c r="AR96" s="82">
+        <v>4.1</v>
+      </c>
+      <c r="AS96" s="82">
+        <v>4.25</v>
+      </c>
+      <c r="AT96" s="82">
+        <v>4.31</v>
+      </c>
+      <c r="AU96" s="82">
+        <v>4.44</v>
+      </c>
+      <c r="AV96" s="82">
+        <v>4.51</v>
+      </c>
+      <c r="AW96" s="82">
+        <v>4.64</v>
+      </c>
+      <c r="AX96" s="82">
+        <v>4.72</v>
+      </c>
+      <c r="AY96" s="82">
+        <v>4.81</v>
+      </c>
+      <c r="AZ96" s="82">
+        <v>4.92</v>
+      </c>
+      <c r="BA96" s="82">
+        <v>5.01</v>
+      </c>
+      <c r="BB96" s="82">
+        <v>5.11</v>
+      </c>
+      <c r="BC96" s="82">
+        <v>5.24</v>
+      </c>
+      <c r="BD96" s="82">
+        <v>5.33</v>
+      </c>
+      <c r="BE96" s="82">
+        <v>5.46</v>
+      </c>
+      <c r="BF96" s="82">
+        <v>5.5</v>
+      </c>
+      <c r="BG96" s="82">
+        <v>5.59</v>
+      </c>
+      <c r="BH96" s="82">
+        <v>5.71</v>
+      </c>
+      <c r="BI96" s="82">
+        <v>5.77</v>
+      </c>
+      <c r="BJ96" s="82">
+        <v>5.89</v>
+      </c>
+      <c r="BK96" s="82">
+        <v>6.02</v>
+      </c>
+      <c r="BL96" s="82">
+        <v>5.98</v>
+      </c>
+      <c r="BM96" s="82">
+        <v>6.1</v>
+      </c>
+      <c r="BN96" s="82">
+        <v>6.26</v>
+      </c>
+      <c r="BO96" s="82">
+        <v>6.48</v>
+      </c>
+      <c r="BP96" s="82">
+        <v>7.18</v>
+      </c>
+      <c r="BQ96" s="82">
+        <v>6.84</v>
+      </c>
+      <c r="BR96" s="82">
+        <v>6.9</v>
+      </c>
+      <c r="BS96" s="82">
+        <v>6.66</v>
+      </c>
+      <c r="BT96" s="82">
+        <v>6.76</v>
+      </c>
+      <c r="BU96" s="82">
+        <v>7.66</v>
+      </c>
+      <c r="BV96" s="82">
+        <v>7.19</v>
+      </c>
+      <c r="BW96" s="82">
+        <v>7.54</v>
+      </c>
+      <c r="BX96" s="82">
+        <v>7.54</v>
+      </c>
+      <c r="BY96" s="82">
+        <v>7.25</v>
+      </c>
+      <c r="BZ96" s="82">
+        <v>7.7</v>
+      </c>
+      <c r="CA96" s="82">
+        <v>7.49</v>
+      </c>
+      <c r="CB96" s="82">
+        <v>7.52</v>
+      </c>
+      <c r="CC96" s="82">
+        <v>7.64</v>
+      </c>
+      <c r="CD96" s="82">
+        <v>7.9</v>
+      </c>
+      <c r="CE96" s="82">
+        <v>7.83</v>
+      </c>
+      <c r="CF96" s="82">
+        <v>7.91</v>
+      </c>
+      <c r="CG96" s="82">
+        <v>8.01</v>
+      </c>
+      <c r="CH96" s="82">
+        <v>8.12</v>
+      </c>
+      <c r="CI96" s="82">
+        <v>8.2</v>
+      </c>
+      <c r="CJ96" s="82">
+        <v>8.26</v>
+      </c>
+      <c r="CK96" s="82">
+        <v>8.43</v>
+      </c>
+      <c r="CL96" s="82">
+        <v>8.75</v>
+      </c>
+      <c r="CM96" s="82">
+        <v>8.61</v>
+      </c>
+      <c r="CN96" s="82">
+        <v>8.7</v>
+      </c>
+      <c r="CO96" s="82">
+        <v>8.75</v>
+      </c>
+      <c r="CP96" s="82">
+        <v>8.8</v>
+      </c>
+      <c r="CQ96" s="82">
+        <v>8.92</v>
+      </c>
+      <c r="CR96" s="82">
+        <v>9.23</v>
+      </c>
+      <c r="CS96" s="82">
+        <v>9.19</v>
+      </c>
+      <c r="CT96" s="82">
+        <v>9.83</v>
+      </c>
+      <c r="CU96" s="82">
+        <v>9.37</v>
+      </c>
+      <c r="CV96" s="82">
+        <v>9.49</v>
+      </c>
+      <c r="CW96" s="82">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
+      <c r="AD115" s="6"/>
+      <c r="AE115" s="6"/>
+      <c r="AF115" s="6"/>
+      <c r="AG115" s="6"/>
+      <c r="AH115" s="6"/>
+      <c r="AI115" s="6"/>
+      <c r="AJ115" s="6"/>
+      <c r="AK115" s="6"/>
+      <c r="AL115" s="6"/>
+      <c r="AM115" s="6"/>
+      <c r="AN115" s="6"/>
+      <c r="AO115" s="6"/>
+      <c r="AP115" s="6"/>
+      <c r="AQ115" s="6"/>
+      <c r="AR115" s="6"/>
+      <c r="AS115" s="6"/>
+      <c r="AT115" s="6"/>
+      <c r="AU115" s="6"/>
+      <c r="AV115" s="6"/>
+      <c r="AW115" s="6"/>
+      <c r="AX115" s="6"/>
+      <c r="AY115" s="6"/>
+      <c r="AZ115" s="6"/>
+      <c r="BA115" s="6"/>
+      <c r="BB115" s="6"/>
+      <c r="BC115" s="6"/>
+      <c r="BD115" s="6"/>
+      <c r="BE115" s="6"/>
+      <c r="BF115" s="6"/>
+      <c r="BG115" s="6"/>
+      <c r="BH115" s="6"/>
+      <c r="BI115" s="6"/>
+      <c r="BJ115" s="6"/>
+      <c r="BK115" s="6"/>
+      <c r="BL115" s="6"/>
+      <c r="BM115" s="6"/>
+      <c r="BN115" s="6"/>
+      <c r="BO115" s="6"/>
+      <c r="BP115" s="6"/>
+      <c r="BQ115" s="6"/>
+      <c r="BR115" s="6"/>
+      <c r="BS115" s="6"/>
+      <c r="BT115" s="6"/>
+      <c r="BU115" s="6"/>
+      <c r="BV115" s="6"/>
+      <c r="BW115" s="6"/>
+      <c r="BX115" s="6"/>
+      <c r="BY115" s="6"/>
+      <c r="BZ115" s="6"/>
+      <c r="CA115" s="6"/>
+      <c r="CB115" s="6"/>
+      <c r="CC115" s="6"/>
+      <c r="CD115" s="6"/>
+      <c r="CE115" s="6"/>
+      <c r="CF115" s="6"/>
+      <c r="CG115" s="6"/>
+      <c r="CH115" s="6"/>
+      <c r="CI115" s="6"/>
+      <c r="CJ115" s="6"/>
+      <c r="CK115" s="6"/>
+      <c r="CL115" s="6"/>
+      <c r="CM115" s="6"/>
+      <c r="CN115" s="6"/>
+      <c r="CO115" s="6"/>
+      <c r="CP115" s="6"/>
+      <c r="CQ115" s="6"/>
+      <c r="CR115" s="6"/>
+      <c r="CS115" s="6"/>
+      <c r="CT115" s="6"/>
+      <c r="CU115" s="6"/>
+      <c r="CV115" s="6"/>
+      <c r="CW115" s="6"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="82">
+        <v>1.16E-4</v>
+      </c>
+      <c r="C117" s="82">
+        <v>0.065658</v>
+      </c>
+      <c r="D117" s="82">
+        <v>0.128374</v>
+      </c>
+      <c r="E117" s="82">
+        <v>0.108158</v>
+      </c>
+      <c r="F117" s="82">
+        <v>0.170645</v>
+      </c>
+      <c r="G117" s="82">
+        <v>0.205751</v>
+      </c>
+      <c r="H117" s="82">
+        <v>0.185172</v>
+      </c>
+      <c r="I117" s="82">
+        <v>0.254489</v>
+      </c>
+      <c r="J117" s="82">
+        <v>0.282306</v>
+      </c>
+      <c r="K117" s="82">
+        <v>0.262509</v>
+      </c>
+      <c r="L117" s="82">
+        <v>0.319609</v>
+      </c>
+      <c r="M117" s="82">
+        <v>0.302861</v>
+      </c>
+      <c r="N117" s="82">
+        <v>0.345722</v>
+      </c>
+      <c r="O117" s="82">
+        <v>0.497253</v>
+      </c>
+      <c r="P117" s="82">
+        <v>0.62112</v>
+      </c>
+      <c r="Q117" s="82">
+        <v>0.522299</v>
+      </c>
+      <c r="R117" s="82">
+        <v>0.501462</v>
+      </c>
+      <c r="S117" s="82">
+        <v>0.63341</v>
+      </c>
+      <c r="T117" s="82">
+        <v>0.640554</v>
+      </c>
+      <c r="U117" s="82">
+        <v>0.638692</v>
+      </c>
+      <c r="V117" s="82">
+        <v>0.625005</v>
+      </c>
+      <c r="W117" s="82">
+        <v>0.660043</v>
+      </c>
+      <c r="X117" s="82">
+        <v>0.674232</v>
+      </c>
+      <c r="Y117" s="82">
+        <v>0.69984</v>
+      </c>
+      <c r="Z117" s="82">
+        <v>0.740574</v>
+      </c>
+      <c r="AA117" s="82">
+        <v>0.739326</v>
+      </c>
+      <c r="AB117" s="82">
+        <v>1.00686</v>
+      </c>
+      <c r="AC117" s="82">
+        <v>0.857192</v>
+      </c>
+      <c r="AD117" s="82">
+        <v>0.930365</v>
+      </c>
+      <c r="AE117" s="82">
+        <v>0.890134</v>
+      </c>
+      <c r="AF117" s="82">
+        <v>0.908447</v>
+      </c>
+      <c r="AG117" s="82">
+        <v>1.03315</v>
+      </c>
+      <c r="AH117" s="82">
+        <v>0.981397</v>
+      </c>
+      <c r="AI117" s="82">
+        <v>0.978493</v>
+      </c>
+      <c r="AJ117" s="82">
+        <v>1.05586</v>
+      </c>
+      <c r="AK117" s="82">
+        <v>1.07126</v>
+      </c>
+      <c r="AL117" s="82">
+        <v>0.971092</v>
+      </c>
+      <c r="AM117" s="82">
+        <v>0.994921</v>
+      </c>
+      <c r="AN117" s="82">
+        <v>0.981331</v>
+      </c>
+      <c r="AO117" s="82">
+        <v>1.00668</v>
+      </c>
+      <c r="AP117" s="82">
+        <v>1.07599</v>
+      </c>
+      <c r="AQ117" s="82">
+        <v>1.04303</v>
+      </c>
+      <c r="AR117" s="82">
+        <v>1.1081</v>
+      </c>
+      <c r="AS117" s="82">
+        <v>1.09433</v>
+      </c>
+      <c r="AT117" s="82">
+        <v>1.13322</v>
+      </c>
+      <c r="AU117" s="82">
+        <v>1.22598</v>
+      </c>
+      <c r="AV117" s="82">
+        <v>1.1773</v>
+      </c>
+      <c r="AW117" s="82">
+        <v>1.20291</v>
+      </c>
+      <c r="AX117" s="82">
+        <v>1.41554</v>
+      </c>
+      <c r="AY117" s="82">
+        <v>1.25843</v>
+      </c>
+      <c r="AZ117" s="82">
+        <v>1.23505</v>
+      </c>
+      <c r="BA117" s="82">
+        <v>1.32589</v>
+      </c>
+      <c r="BB117" s="82">
+        <v>1.35167</v>
+      </c>
+      <c r="BC117" s="82">
+        <v>1.40016</v>
+      </c>
+      <c r="BD117" s="82">
+        <v>1.41581</v>
+      </c>
+      <c r="BE117" s="82">
+        <v>1.7139</v>
+      </c>
+      <c r="BF117" s="82">
+        <v>1.54168</v>
+      </c>
+      <c r="BG117" s="82">
+        <v>1.49926</v>
+      </c>
+      <c r="BH117" s="82">
+        <v>1.51007</v>
+      </c>
+      <c r="BI117" s="82">
+        <v>1.54484</v>
+      </c>
+      <c r="BJ117" s="82">
+        <v>1.55613</v>
+      </c>
+      <c r="BK117" s="82">
+        <v>1.66241</v>
+      </c>
+      <c r="BL117" s="82">
+        <v>1.62883</v>
+      </c>
+      <c r="BM117" s="82">
+        <v>1.66517</v>
+      </c>
+      <c r="BN117" s="82">
+        <v>1.6837</v>
+      </c>
+      <c r="BO117" s="82">
+        <v>1.70508</v>
+      </c>
+      <c r="BP117" s="82">
+        <v>1.87866</v>
+      </c>
+      <c r="BQ117" s="82">
+        <v>1.7345</v>
+      </c>
+      <c r="BR117" s="82">
+        <v>1.76274</v>
+      </c>
+      <c r="BS117" s="82">
+        <v>1.81092</v>
+      </c>
+      <c r="BT117" s="82">
+        <v>1.77484</v>
+      </c>
+      <c r="BU117" s="82">
+        <v>1.95234</v>
+      </c>
+      <c r="BV117" s="82">
+        <v>1.80145</v>
+      </c>
+      <c r="BW117" s="82">
+        <v>1.9148</v>
+      </c>
+      <c r="BX117" s="82">
+        <v>2.09314</v>
+      </c>
+      <c r="BY117" s="82">
+        <v>1.98639</v>
+      </c>
+      <c r="BZ117" s="82">
+        <v>1.93028</v>
+      </c>
+      <c r="CA117" s="82">
+        <v>1.97708</v>
+      </c>
+      <c r="CB117" s="82">
+        <v>2.01276</v>
+      </c>
+      <c r="CC117" s="82">
+        <v>2.00504</v>
+      </c>
+      <c r="CD117" s="82">
+        <v>2.01583</v>
+      </c>
+      <c r="CE117" s="82">
+        <v>2.06627</v>
+      </c>
+      <c r="CF117" s="82">
+        <v>2.09834</v>
+      </c>
+      <c r="CG117" s="82">
+        <v>2.09459</v>
+      </c>
+      <c r="CH117" s="82">
+        <v>2.12481</v>
+      </c>
+      <c r="CI117" s="82">
+        <v>2.10809</v>
+      </c>
+      <c r="CJ117" s="82">
+        <v>2.25846</v>
+      </c>
+      <c r="CK117" s="82">
+        <v>2.30027</v>
+      </c>
+      <c r="CL117" s="82">
+        <v>2.2111</v>
+      </c>
+      <c r="CM117" s="82">
+        <v>2.25468</v>
+      </c>
+      <c r="CN117" s="82">
+        <v>2.26478</v>
+      </c>
+      <c r="CO117" s="82">
+        <v>2.34569</v>
+      </c>
+      <c r="CP117" s="82">
+        <v>2.30917</v>
+      </c>
+      <c r="CQ117" s="82">
+        <v>2.34713</v>
+      </c>
+      <c r="CR117" s="82">
+        <v>2.95617</v>
+      </c>
+      <c r="CS117" s="82">
+        <v>2.57232</v>
+      </c>
+      <c r="CT117" s="82">
+        <v>2.62936</v>
+      </c>
+      <c r="CU117" s="82">
+        <v>2.49037</v>
+      </c>
+      <c r="CV117" s="82">
+        <v>2.49727</v>
+      </c>
+      <c r="CW117" s="82">
+        <v>2.45595</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="C118" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="D118" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="E118" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="F118" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="G118" s="31">
+        <v>0.07</v>
+      </c>
+      <c r="H118" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="31">
+        <v>0.07</v>
+      </c>
+      <c r="J118" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="K118" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="L118" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="M118" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="N118" s="31">
+        <v>0.12</v>
+      </c>
+      <c r="O118" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="P118" s="31">
+        <v>0.16</v>
+      </c>
+      <c r="Q118" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="R118" s="31">
+        <v>0.19</v>
+      </c>
+      <c r="S118" s="31">
+        <v>0.16</v>
+      </c>
+      <c r="T118" s="31">
+        <v>0.21</v>
+      </c>
+      <c r="U118" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="V118" s="31">
+        <v>0.21</v>
+      </c>
+      <c r="W118" s="31">
+        <v>0.21</v>
+      </c>
+      <c r="X118" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="Y118" s="31">
+        <v>0.24</v>
+      </c>
+      <c r="Z118" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="AA118" s="31">
+        <v>0.28</v>
+      </c>
+      <c r="AB118" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="AC118" s="31">
+        <v>0.28</v>
+      </c>
+      <c r="AD118" s="31">
+        <v>0.29</v>
+      </c>
+      <c r="AE118" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="AF118" s="31">
+        <v>0.32</v>
+      </c>
+      <c r="AG118" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="AH118" s="31">
+        <v>0.44</v>
+      </c>
+      <c r="AI118" s="31">
+        <v>0.42</v>
+      </c>
+      <c r="AJ118" s="31">
+        <v>0.41</v>
+      </c>
+      <c r="AK118" s="31">
+        <v>0.35</v>
+      </c>
+      <c r="AL118" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="AM118" s="31">
+        <v>0.39</v>
+      </c>
+      <c r="AN118" s="31">
+        <v>0.46</v>
+      </c>
+      <c r="AO118" s="31">
+        <v>0.39</v>
+      </c>
+      <c r="AP118" s="31">
+        <v>0.43</v>
+      </c>
+      <c r="AQ118" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AR118" s="31">
+        <v>0.48</v>
+      </c>
+      <c r="AS118" s="31">
+        <v>0.46</v>
+      </c>
+      <c r="AT118" s="31">
+        <v>0.42</v>
+      </c>
+      <c r="AU118" s="31">
+        <v>0.55</v>
+      </c>
+      <c r="AV118" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="AW118" s="31">
+        <v>0.48</v>
+      </c>
+      <c r="AX118" s="31">
+        <v>0.54</v>
+      </c>
+      <c r="AY118" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AZ118" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="BA118" s="31">
+        <v>0.48</v>
+      </c>
+      <c r="BB118" s="31">
+        <v>0.57</v>
+      </c>
+      <c r="BC118" s="31">
+        <v>0.59</v>
+      </c>
+      <c r="BD118" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="BE118" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="BF118" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="BG118" s="31">
+        <v>0.72</v>
+      </c>
+      <c r="BH118" s="31">
+        <v>0.71</v>
+      </c>
+      <c r="BI118" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="BJ118" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="BK118" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="BL118" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="BM118" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="BN118" s="31">
+        <v>0.81</v>
+      </c>
+      <c r="BO118" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="BP118" s="31">
+        <v>0.97</v>
+      </c>
+      <c r="BQ118" s="31">
+        <v>0.88</v>
+      </c>
+      <c r="BR118" s="31">
+        <v>0.94</v>
+      </c>
+      <c r="BS118" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="BT118" s="31">
+        <v>1.06</v>
+      </c>
+      <c r="BU118" s="31">
+        <v>0.99</v>
+      </c>
+      <c r="BV118" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="BW118" s="31">
+        <v>0.97</v>
+      </c>
+      <c r="BX118" s="31">
+        <v>1.04</v>
+      </c>
+      <c r="BY118" s="31">
+        <v>1.07</v>
+      </c>
+      <c r="BZ118" s="31">
+        <v>1.07</v>
+      </c>
+      <c r="CA118" s="31">
+        <v>1.1</v>
+      </c>
+      <c r="CB118" s="31">
+        <v>1.12</v>
+      </c>
+      <c r="CC118" s="31">
+        <v>1.16</v>
+      </c>
+      <c r="CD118" s="31">
+        <v>1.31</v>
+      </c>
+      <c r="CE118" s="31">
+        <v>1.19</v>
+      </c>
+      <c r="CF118" s="31">
+        <v>1.16</v>
+      </c>
+      <c r="CG118" s="31">
+        <v>1.25</v>
+      </c>
+      <c r="CH118" s="31">
+        <v>1.24</v>
+      </c>
+      <c r="CI118" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="CJ118" s="31">
+        <v>1.24</v>
+      </c>
+      <c r="CK118" s="31">
+        <v>1.19</v>
+      </c>
+      <c r="CL118" s="31">
+        <v>1.44</v>
+      </c>
+      <c r="CM118" s="31">
+        <v>1.43</v>
+      </c>
+      <c r="CN118" s="31">
+        <v>1.49</v>
+      </c>
+      <c r="CO118" s="31">
+        <v>1.43</v>
+      </c>
+      <c r="CP118" s="31">
+        <v>1.48</v>
+      </c>
+      <c r="CQ118" s="31">
+        <v>1.39</v>
+      </c>
+      <c r="CR118" s="31">
+        <v>1.53</v>
+      </c>
+      <c r="CS118" s="31">
+        <v>1.46</v>
+      </c>
+      <c r="CT118" s="31">
+        <v>1.47</v>
+      </c>
+      <c r="CU118" s="31">
+        <v>1.53</v>
+      </c>
+      <c r="CV118" s="31">
+        <v>1.58</v>
+      </c>
+      <c r="CW118" s="31">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="C119" s="82">
+        <v>0.04</v>
+      </c>
+      <c r="D119" s="82">
+        <v>0.09</v>
+      </c>
+      <c r="E119" s="82">
+        <v>0.13</v>
+      </c>
+      <c r="F119" s="82">
+        <v>0.16</v>
+      </c>
+      <c r="G119" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="H119" s="82">
+        <v>0.25</v>
+      </c>
+      <c r="I119" s="82">
+        <v>0.28</v>
+      </c>
+      <c r="J119" s="82">
+        <v>0.31</v>
+      </c>
+      <c r="K119" s="82">
+        <v>0.41</v>
+      </c>
+      <c r="L119" s="82">
+        <v>0.43</v>
+      </c>
+      <c r="M119" s="82">
+        <v>0.45</v>
+      </c>
+      <c r="N119" s="82">
+        <v>0.55</v>
+      </c>
+      <c r="O119" s="82">
+        <v>0.61</v>
+      </c>
+      <c r="P119" s="82">
+        <v>0.61</v>
+      </c>
+      <c r="Q119" s="82">
+        <v>0.61</v>
+      </c>
+      <c r="R119" s="82">
+        <v>0.64</v>
+      </c>
+      <c r="S119" s="82">
+        <v>0.72</v>
+      </c>
+      <c r="T119" s="82">
+        <v>0.75</v>
+      </c>
+      <c r="U119" s="82">
+        <v>0.82</v>
+      </c>
+      <c r="V119" s="82">
+        <v>0.83</v>
+      </c>
+      <c r="W119" s="82">
+        <v>0.94</v>
+      </c>
+      <c r="X119" s="82">
+        <v>0.92</v>
+      </c>
+      <c r="Y119" s="82">
+        <v>0.93</v>
+      </c>
+      <c r="Z119" s="82">
+        <v>1.02</v>
+      </c>
+      <c r="AA119" s="82">
+        <v>1.02</v>
+      </c>
+      <c r="AB119" s="82">
+        <v>1.06</v>
+      </c>
+      <c r="AC119" s="82">
+        <v>1.12</v>
+      </c>
+      <c r="AD119" s="82">
+        <v>1.13</v>
+      </c>
+      <c r="AE119" s="82">
+        <v>1.2</v>
+      </c>
+      <c r="AF119" s="82">
+        <v>1.28</v>
+      </c>
+      <c r="AG119" s="82">
+        <v>1.58</v>
+      </c>
+      <c r="AH119" s="82">
+        <v>1.92</v>
+      </c>
+      <c r="AI119" s="82">
+        <v>1.42</v>
+      </c>
+      <c r="AJ119" s="82">
+        <v>1.8</v>
+      </c>
+      <c r="AK119" s="82">
+        <v>1.98</v>
+      </c>
+      <c r="AL119" s="82">
+        <v>1.56</v>
+      </c>
+      <c r="AM119" s="82">
+        <v>1.49</v>
+      </c>
+      <c r="AN119" s="82">
+        <v>1.59</v>
+      </c>
+      <c r="AO119" s="82">
+        <v>1.58</v>
+      </c>
+      <c r="AP119" s="82">
+        <v>1.67</v>
+      </c>
+      <c r="AQ119" s="82">
+        <v>1.63</v>
+      </c>
+      <c r="AR119" s="82">
+        <v>1.87</v>
+      </c>
+      <c r="AS119" s="82">
+        <v>1.76</v>
+      </c>
+      <c r="AT119" s="82">
+        <v>1.77</v>
+      </c>
+      <c r="AU119" s="82">
+        <v>1.9</v>
+      </c>
+      <c r="AV119" s="82">
+        <v>1.92</v>
+      </c>
+      <c r="AW119" s="82">
+        <v>1.94</v>
+      </c>
+      <c r="AX119" s="82">
+        <v>1.94</v>
+      </c>
+      <c r="AY119" s="82">
+        <v>2.02</v>
+      </c>
+      <c r="AZ119" s="82">
+        <v>2.01</v>
+      </c>
+      <c r="BA119" s="82">
+        <v>2.11</v>
+      </c>
+      <c r="BB119" s="82">
+        <v>2.11</v>
+      </c>
+      <c r="BC119" s="82">
+        <v>2.24</v>
+      </c>
+      <c r="BD119" s="82">
+        <v>2.22</v>
+      </c>
+      <c r="BE119" s="82">
+        <v>2.26</v>
+      </c>
+      <c r="BF119" s="82">
+        <v>2.31</v>
+      </c>
+      <c r="BG119" s="82">
+        <v>2.37</v>
+      </c>
+      <c r="BH119" s="82">
+        <v>2.31</v>
+      </c>
+      <c r="BI119" s="82">
+        <v>2.5</v>
+      </c>
+      <c r="BJ119" s="82">
+        <v>2.46</v>
+      </c>
+      <c r="BK119" s="82">
+        <v>2.51</v>
+      </c>
+      <c r="BL119" s="82">
+        <v>2.49</v>
+      </c>
+      <c r="BM119" s="82">
+        <v>2.63</v>
+      </c>
+      <c r="BN119" s="82">
+        <v>2.54</v>
+      </c>
+      <c r="BO119" s="82">
+        <v>2.8</v>
+      </c>
+      <c r="BP119" s="82">
+        <v>2.79</v>
+      </c>
+      <c r="BQ119" s="82">
+        <v>2.86</v>
+      </c>
+      <c r="BR119" s="82">
+        <v>2.78</v>
+      </c>
+      <c r="BS119" s="82">
+        <v>2.89</v>
+      </c>
+      <c r="BT119" s="82">
+        <v>2.85</v>
+      </c>
+      <c r="BU119" s="82">
+        <v>2.93</v>
+      </c>
+      <c r="BV119" s="82">
+        <v>2.95</v>
+      </c>
+      <c r="BW119" s="82">
+        <v>3.07</v>
+      </c>
+      <c r="BX119" s="82">
+        <v>2.99</v>
+      </c>
+      <c r="BY119" s="82">
+        <v>3.01</v>
+      </c>
+      <c r="BZ119" s="82">
+        <v>3.18</v>
+      </c>
+      <c r="CA119" s="82">
+        <v>3.08</v>
+      </c>
+      <c r="CB119" s="82">
+        <v>3.14</v>
+      </c>
+      <c r="CC119" s="82">
+        <v>3.19</v>
+      </c>
+      <c r="CD119" s="82">
+        <v>3.24</v>
+      </c>
+      <c r="CE119" s="82">
+        <v>3.34</v>
+      </c>
+      <c r="CF119" s="82">
+        <v>3.26</v>
+      </c>
+      <c r="CG119" s="82">
+        <v>3.5</v>
+      </c>
+      <c r="CH119" s="82">
+        <v>3.43</v>
+      </c>
+      <c r="CI119" s="82">
+        <v>3.49</v>
+      </c>
+      <c r="CJ119" s="82">
+        <v>3.69</v>
+      </c>
+      <c r="CK119" s="82">
+        <v>3.81</v>
+      </c>
+      <c r="CL119" s="82">
+        <v>3.62</v>
+      </c>
+      <c r="CM119" s="82">
+        <v>3.79</v>
+      </c>
+      <c r="CN119" s="82">
+        <v>4.88</v>
+      </c>
+      <c r="CO119" s="82">
+        <v>3.79</v>
+      </c>
+      <c r="CP119" s="82">
+        <v>3.81</v>
+      </c>
+      <c r="CQ119" s="82">
+        <v>3.87</v>
+      </c>
+      <c r="CR119" s="82">
+        <v>3.78</v>
+      </c>
+      <c r="CS119" s="82">
+        <v>3.85</v>
+      </c>
+      <c r="CT119" s="82">
+        <v>4.02</v>
+      </c>
+      <c r="CU119" s="82">
+        <v>4.0</v>
+      </c>
+      <c r="CV119" s="82">
+        <v>4.04</v>
+      </c>
+      <c r="CW119" s="82">
+        <v>4.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>